--- a/BackTest/2020-01-22 BackTest INS.xlsx
+++ b/BackTest/2020-01-22 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -944,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -979,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1014,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1084,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1119,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1201,6 +1227,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1242,6 +1269,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1283,6 +1311,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1318,6 +1347,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1345,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1353,6 +1383,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1388,6 +1419,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1423,6 +1455,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1458,6 +1491,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1493,6 +1527,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1528,6 +1563,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1563,6 +1599,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1598,6 +1635,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1633,6 +1671,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1668,6 +1707,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1703,6 +1743,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1738,6 +1779,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1773,6 +1815,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1808,6 +1851,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1843,6 +1887,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1878,6 +1923,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1913,6 +1959,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1948,6 +1995,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1983,6 +2031,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2018,6 +2067,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2053,6 +2103,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2080,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2088,6 +2139,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2115,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2123,6 +2175,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2158,6 +2211,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2193,6 +2247,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2228,6 +2283,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2263,6 +2319,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2298,6 +2355,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2333,6 +2391,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2368,6 +2427,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2395,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2403,6 +2463,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2430,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2438,6 +2499,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2465,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2473,6 +2535,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2500,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2508,6 +2571,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2543,6 +2607,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2578,6 +2643,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2605,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2613,6 +2679,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2640,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2648,6 +2715,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2683,6 +2751,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2710,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2718,6 +2787,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2745,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2753,6 +2823,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2788,6 +2859,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2823,6 +2895,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2858,6 +2931,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2893,6 +2967,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2928,6 +3003,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2963,6 +3039,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2998,6 +3075,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3033,6 +3111,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3068,6 +3147,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3107,6 +3187,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3150,6 +3231,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3177,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>187.5</v>
@@ -3193,6 +3275,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3228,6 +3311,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3255,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3263,6 +3347,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3302,6 +3387,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3343,6 +3429,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3370,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
@@ -3384,6 +3471,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3419,6 +3507,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3446,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3454,6 +3543,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3489,6 +3579,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3524,6 +3615,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3559,6 +3651,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3594,6 +3687,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3629,6 +3723,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3664,6 +3759,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3699,6 +3795,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3734,6 +3831,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3769,6 +3867,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3804,6 +3903,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3839,6 +3939,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3874,6 +3975,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3909,6 +4011,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3944,6 +4047,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3979,6 +4083,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4014,6 +4119,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4049,6 +4155,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4084,6 +4191,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4119,6 +4227,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4154,6 +4263,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4189,6 +4299,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4224,6 +4335,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4259,6 +4371,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4294,6 +4407,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4329,6 +4443,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4364,6 +4479,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4399,6 +4515,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4434,6 +4551,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4469,6 +4587,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4496,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4504,6 +4623,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4531,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4539,6 +4659,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4566,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4574,6 +4695,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4609,6 +4731,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4636,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4644,6 +4767,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4679,6 +4803,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4714,6 +4839,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4749,6 +4875,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4784,6 +4911,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4819,6 +4947,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4854,6 +4983,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4889,6 +5019,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4924,6 +5055,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4959,6 +5091,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4994,6 +5127,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5029,6 +5163,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5064,6 +5199,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5099,6 +5235,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5134,6 +5271,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5169,6 +5307,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5204,6 +5343,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest INS.xlsx
+++ b/BackTest/2020-01-22 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -441,19 +441,19 @@
         <v>187</v>
       </c>
       <c r="C2" t="n">
-        <v>187</v>
+        <v>187.7</v>
       </c>
       <c r="D2" t="n">
-        <v>187</v>
+        <v>187.7</v>
       </c>
       <c r="E2" t="n">
         <v>187</v>
       </c>
       <c r="F2" t="n">
-        <v>457.1111</v>
+        <v>11656.2034</v>
       </c>
       <c r="G2" t="n">
-        <v>23746.22100000001</v>
+        <v>-4348.540299999997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>186.5</v>
+        <v>187.8</v>
       </c>
       <c r="C3" t="n">
-        <v>186.5</v>
+        <v>187.8</v>
       </c>
       <c r="D3" t="n">
-        <v>186.5</v>
+        <v>187.8</v>
       </c>
       <c r="E3" t="n">
-        <v>186.5</v>
+        <v>187.8</v>
       </c>
       <c r="F3" t="n">
-        <v>8432.337799999999</v>
+        <v>10251</v>
       </c>
       <c r="G3" t="n">
-        <v>15313.88320000001</v>
+        <v>5902.459700000003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>188.2</v>
+        <v>188</v>
       </c>
       <c r="C4" t="n">
-        <v>188.2</v>
+        <v>188</v>
       </c>
       <c r="D4" t="n">
-        <v>188.2</v>
+        <v>188</v>
       </c>
       <c r="E4" t="n">
-        <v>188.2</v>
+        <v>188</v>
       </c>
       <c r="F4" t="n">
-        <v>2.63</v>
+        <v>21.08</v>
       </c>
       <c r="G4" t="n">
-        <v>15316.5132</v>
+        <v>5923.539700000003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>186.4</v>
+        <v>187</v>
       </c>
       <c r="C5" t="n">
-        <v>186.4</v>
+        <v>188.3</v>
       </c>
       <c r="D5" t="n">
-        <v>186.4</v>
+        <v>188.3</v>
       </c>
       <c r="E5" t="n">
-        <v>186.4</v>
+        <v>187</v>
       </c>
       <c r="F5" t="n">
-        <v>1027</v>
+        <v>5658.766</v>
       </c>
       <c r="G5" t="n">
-        <v>14289.5132</v>
+        <v>11582.3057</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>186.4</v>
+        <v>188</v>
       </c>
       <c r="C6" t="n">
-        <v>186.2</v>
+        <v>187.6</v>
       </c>
       <c r="D6" t="n">
-        <v>186.4</v>
+        <v>188</v>
       </c>
       <c r="E6" t="n">
-        <v>186.2</v>
+        <v>187.6</v>
       </c>
       <c r="F6" t="n">
-        <v>1514.1738</v>
+        <v>494</v>
       </c>
       <c r="G6" t="n">
-        <v>12775.3394</v>
+        <v>11088.3057</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>186.2</v>
+        <v>188.8</v>
       </c>
       <c r="C7" t="n">
-        <v>186.2</v>
+        <v>186.8</v>
       </c>
       <c r="D7" t="n">
-        <v>186.2</v>
+        <v>188.8</v>
       </c>
       <c r="E7" t="n">
-        <v>186.2</v>
+        <v>186.8</v>
       </c>
       <c r="F7" t="n">
-        <v>5100.287</v>
+        <v>776.4895</v>
       </c>
       <c r="G7" t="n">
-        <v>12775.3394</v>
+        <v>10311.8162</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>186.2</v>
+        <v>187.4</v>
       </c>
       <c r="C8" t="n">
-        <v>186.2</v>
+        <v>188.5</v>
       </c>
       <c r="D8" t="n">
-        <v>186.2</v>
+        <v>188.5</v>
       </c>
       <c r="E8" t="n">
-        <v>186.2</v>
+        <v>187.2</v>
       </c>
       <c r="F8" t="n">
-        <v>1094.0666</v>
+        <v>5500.0276</v>
       </c>
       <c r="G8" t="n">
-        <v>12775.3394</v>
+        <v>15811.8438</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>186.1</v>
+        <v>186.4</v>
       </c>
       <c r="C9" t="n">
-        <v>186.1</v>
+        <v>185.3</v>
       </c>
       <c r="D9" t="n">
-        <v>186.1</v>
+        <v>186.4</v>
       </c>
       <c r="E9" t="n">
-        <v>186.1</v>
+        <v>185.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2279.58</v>
+        <v>566.7196</v>
       </c>
       <c r="G9" t="n">
-        <v>10495.7594</v>
+        <v>15245.1242</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>186.1</v>
+        <v>186</v>
       </c>
       <c r="C10" t="n">
-        <v>186.2</v>
+        <v>186</v>
       </c>
       <c r="D10" t="n">
-        <v>186.2</v>
+        <v>186</v>
       </c>
       <c r="E10" t="n">
-        <v>186.1</v>
+        <v>186</v>
       </c>
       <c r="F10" t="n">
-        <v>1037.8441</v>
+        <v>4918.052</v>
       </c>
       <c r="G10" t="n">
-        <v>11533.6035</v>
+        <v>20163.1762</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>186.2</v>
+        <v>186.1</v>
       </c>
       <c r="C11" t="n">
-        <v>186.2</v>
+        <v>186.1</v>
       </c>
       <c r="D11" t="n">
-        <v>186.2</v>
+        <v>186.1</v>
       </c>
       <c r="E11" t="n">
-        <v>186.2</v>
+        <v>186.1</v>
       </c>
       <c r="F11" t="n">
-        <v>7333.0474</v>
+        <v>5161.3701</v>
       </c>
       <c r="G11" t="n">
-        <v>11533.6035</v>
+        <v>25324.5463</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>186.2</v>
+        <v>186.1</v>
       </c>
       <c r="C12" t="n">
-        <v>186.2</v>
+        <v>186.1</v>
       </c>
       <c r="D12" t="n">
-        <v>186.2</v>
+        <v>186.1</v>
       </c>
       <c r="E12" t="n">
-        <v>186.2</v>
+        <v>186.1</v>
       </c>
       <c r="F12" t="n">
-        <v>4322.2198</v>
+        <v>2612.4707</v>
       </c>
       <c r="G12" t="n">
-        <v>11533.6035</v>
+        <v>25324.5463</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>187.1</v>
+        <v>186.1</v>
       </c>
       <c r="C13" t="n">
-        <v>186.2</v>
+        <v>186.1</v>
       </c>
       <c r="D13" t="n">
-        <v>187.1</v>
+        <v>186.1</v>
       </c>
       <c r="E13" t="n">
-        <v>186.2</v>
+        <v>186.1</v>
       </c>
       <c r="F13" t="n">
-        <v>10.65</v>
+        <v>315.0082</v>
       </c>
       <c r="G13" t="n">
-        <v>11533.6035</v>
+        <v>25324.5463</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>186.2</v>
+        <v>187</v>
       </c>
       <c r="C14" t="n">
-        <v>187.1</v>
+        <v>187</v>
       </c>
       <c r="D14" t="n">
-        <v>187.1</v>
+        <v>187</v>
       </c>
       <c r="E14" t="n">
-        <v>186.2</v>
+        <v>187</v>
       </c>
       <c r="F14" t="n">
-        <v>26.26</v>
+        <v>22.2406</v>
       </c>
       <c r="G14" t="n">
-        <v>11559.8635</v>
+        <v>25346.7869</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>186.2</v>
+        <v>187</v>
       </c>
       <c r="C15" t="n">
-        <v>186.2</v>
+        <v>187</v>
       </c>
       <c r="D15" t="n">
-        <v>186.2</v>
+        <v>187</v>
       </c>
       <c r="E15" t="n">
-        <v>186.2</v>
+        <v>187</v>
       </c>
       <c r="F15" t="n">
-        <v>324.4541</v>
+        <v>235.7594</v>
       </c>
       <c r="G15" t="n">
-        <v>11235.4094</v>
+        <v>25346.7869</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>186.2</v>
+        <v>187.4</v>
       </c>
       <c r="C16" t="n">
-        <v>186.1</v>
+        <v>187.4</v>
       </c>
       <c r="D16" t="n">
-        <v>186.2</v>
+        <v>187.4</v>
       </c>
       <c r="E16" t="n">
-        <v>186.1</v>
+        <v>187.4</v>
       </c>
       <c r="F16" t="n">
-        <v>1308.4045</v>
+        <v>303</v>
       </c>
       <c r="G16" t="n">
-        <v>9927.004900000004</v>
+        <v>25649.7869</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>186.1</v>
+        <v>187.4</v>
       </c>
       <c r="C17" t="n">
-        <v>186.1</v>
+        <v>187.4</v>
       </c>
       <c r="D17" t="n">
-        <v>186.1</v>
+        <v>187.4</v>
       </c>
       <c r="E17" t="n">
-        <v>186.1</v>
+        <v>187.4</v>
       </c>
       <c r="F17" t="n">
-        <v>5630.0828</v>
+        <v>1198.2606</v>
       </c>
       <c r="G17" t="n">
-        <v>9927.004900000004</v>
+        <v>25649.7869</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>187.1</v>
+        <v>187.4</v>
       </c>
       <c r="C18" t="n">
-        <v>187.1</v>
+        <v>187.4</v>
       </c>
       <c r="D18" t="n">
-        <v>187.1</v>
+        <v>187.4</v>
       </c>
       <c r="E18" t="n">
-        <v>187.1</v>
+        <v>187.4</v>
       </c>
       <c r="F18" t="n">
-        <v>2.61</v>
+        <v>1651</v>
       </c>
       <c r="G18" t="n">
-        <v>9929.614900000004</v>
+        <v>25649.7869</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>186.1</v>
+        <v>187.4</v>
       </c>
       <c r="C19" t="n">
-        <v>186.1</v>
+        <v>186.2</v>
       </c>
       <c r="D19" t="n">
-        <v>186.1</v>
+        <v>187.4</v>
       </c>
       <c r="E19" t="n">
-        <v>186.1</v>
+        <v>186.2</v>
       </c>
       <c r="F19" t="n">
-        <v>1107.34</v>
+        <v>949</v>
       </c>
       <c r="G19" t="n">
-        <v>8822.274900000004</v>
+        <v>24700.7869</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>186.1</v>
+        <v>187.6</v>
       </c>
       <c r="C20" t="n">
-        <v>186.1</v>
+        <v>187.6</v>
       </c>
       <c r="D20" t="n">
-        <v>186.1</v>
+        <v>187.6</v>
       </c>
       <c r="E20" t="n">
-        <v>186.1</v>
+        <v>187.6</v>
       </c>
       <c r="F20" t="n">
-        <v>552.49</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>8822.274900000004</v>
+        <v>24712.7869</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>186.1</v>
+        <v>187.6</v>
       </c>
       <c r="C21" t="n">
-        <v>186.1</v>
+        <v>186.4</v>
       </c>
       <c r="D21" t="n">
-        <v>186.1</v>
+        <v>187.6</v>
       </c>
       <c r="E21" t="n">
-        <v>186.1</v>
+        <v>186.4</v>
       </c>
       <c r="F21" t="n">
-        <v>1070.6556</v>
+        <v>1455.3184</v>
       </c>
       <c r="G21" t="n">
-        <v>8822.274900000004</v>
+        <v>23257.4685</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>186</v>
+        <v>187.1</v>
       </c>
       <c r="C22" t="n">
-        <v>186</v>
+        <v>186.4</v>
       </c>
       <c r="D22" t="n">
-        <v>186</v>
+        <v>187.1</v>
       </c>
       <c r="E22" t="n">
-        <v>186</v>
+        <v>186.4</v>
       </c>
       <c r="F22" t="n">
-        <v>624</v>
+        <v>856</v>
       </c>
       <c r="G22" t="n">
-        <v>8198.274900000004</v>
+        <v>23257.4685</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,35 +1194,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>187.2</v>
+        <v>187.5</v>
       </c>
       <c r="C23" t="n">
-        <v>187.2</v>
+        <v>187.6</v>
       </c>
       <c r="D23" t="n">
-        <v>187.2</v>
+        <v>187.6</v>
       </c>
       <c r="E23" t="n">
-        <v>187.2</v>
+        <v>187.5</v>
       </c>
       <c r="F23" t="n">
-        <v>2.66</v>
+        <v>4000</v>
       </c>
       <c r="G23" t="n">
-        <v>8200.934900000004</v>
+        <v>27257.4685</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>186</v>
-      </c>
-      <c r="K23" t="n">
-        <v>186</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
@@ -1234,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>187.1</v>
+        <v>187.6</v>
       </c>
       <c r="C24" t="n">
-        <v>187.1</v>
+        <v>187.6</v>
       </c>
       <c r="D24" t="n">
-        <v>187.1</v>
+        <v>187.6</v>
       </c>
       <c r="E24" t="n">
-        <v>187.1</v>
+        <v>187.6</v>
       </c>
       <c r="F24" t="n">
-        <v>6601.4988</v>
+        <v>2000</v>
       </c>
       <c r="G24" t="n">
-        <v>1599.436100000004</v>
+        <v>27257.4685</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1258,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>186</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1276,38 +1266,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>187.2</v>
+        <v>187</v>
       </c>
       <c r="C25" t="n">
-        <v>187.2</v>
+        <v>187</v>
       </c>
       <c r="D25" t="n">
-        <v>187.2</v>
+        <v>187</v>
       </c>
       <c r="E25" t="n">
-        <v>187.2</v>
+        <v>187</v>
       </c>
       <c r="F25" t="n">
-        <v>2.66</v>
+        <v>1268.2476</v>
       </c>
       <c r="G25" t="n">
-        <v>1602.096100000004</v>
+        <v>25989.2209</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>186</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1318,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>187.2</v>
+        <v>188</v>
       </c>
       <c r="C26" t="n">
-        <v>187.2</v>
+        <v>188</v>
       </c>
       <c r="D26" t="n">
-        <v>187.2</v>
+        <v>188</v>
       </c>
       <c r="E26" t="n">
-        <v>187.2</v>
+        <v>188</v>
       </c>
       <c r="F26" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G26" t="n">
-        <v>1602.096100000004</v>
+        <v>26489.2209</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1354,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>186.1</v>
+        <v>187.5</v>
       </c>
       <c r="C27" t="n">
-        <v>186.1</v>
+        <v>187.5</v>
       </c>
       <c r="D27" t="n">
-        <v>186.1</v>
+        <v>187.5</v>
       </c>
       <c r="E27" t="n">
-        <v>186.1</v>
+        <v>187.5</v>
       </c>
       <c r="F27" t="n">
-        <v>9850.9953</v>
+        <v>392</v>
       </c>
       <c r="G27" t="n">
-        <v>-8248.899199999996</v>
+        <v>26097.2209</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1390,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>186.1</v>
+        <v>187.5</v>
       </c>
       <c r="C28" t="n">
-        <v>186.1</v>
+        <v>187.5</v>
       </c>
       <c r="D28" t="n">
-        <v>186.1</v>
+        <v>187.5</v>
       </c>
       <c r="E28" t="n">
-        <v>186.1</v>
+        <v>187.5</v>
       </c>
       <c r="F28" t="n">
-        <v>1941.1797</v>
+        <v>1608</v>
       </c>
       <c r="G28" t="n">
-        <v>-8248.899199999996</v>
+        <v>26097.2209</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1426,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>186.3</v>
+        <v>187.1</v>
       </c>
       <c r="C29" t="n">
-        <v>186.3</v>
+        <v>187.1</v>
       </c>
       <c r="D29" t="n">
-        <v>186.3</v>
+        <v>187.1</v>
       </c>
       <c r="E29" t="n">
-        <v>186.3</v>
+        <v>187.1</v>
       </c>
       <c r="F29" t="n">
-        <v>3183.5329</v>
+        <v>2000</v>
       </c>
       <c r="G29" t="n">
-        <v>-5065.366299999996</v>
+        <v>24097.2209</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1462,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>186.1</v>
+        <v>187</v>
       </c>
       <c r="C30" t="n">
-        <v>186.1</v>
+        <v>187</v>
       </c>
       <c r="D30" t="n">
-        <v>186.1</v>
+        <v>187</v>
       </c>
       <c r="E30" t="n">
-        <v>186.1</v>
+        <v>187</v>
       </c>
       <c r="F30" t="n">
-        <v>523.2061</v>
+        <v>350.9999</v>
       </c>
       <c r="G30" t="n">
-        <v>-5588.572399999996</v>
+        <v>23746.22100000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1498,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>186.1</v>
+        <v>187</v>
       </c>
       <c r="C31" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D31" t="n">
-        <v>186.1</v>
+        <v>187</v>
       </c>
       <c r="E31" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F31" t="n">
-        <v>3706.7389</v>
+        <v>457.1111</v>
       </c>
       <c r="G31" t="n">
-        <v>-9295.311299999996</v>
+        <v>23746.22100000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1546,10 +1530,10 @@
         <v>186.5</v>
       </c>
       <c r="F32" t="n">
-        <v>2.68</v>
+        <v>8432.337799999999</v>
       </c>
       <c r="G32" t="n">
-        <v>-9292.631299999995</v>
+        <v>15313.88320000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1570,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>186.4</v>
+        <v>188.2</v>
       </c>
       <c r="C33" t="n">
-        <v>186.4</v>
+        <v>188.2</v>
       </c>
       <c r="D33" t="n">
-        <v>186.4</v>
+        <v>188.2</v>
       </c>
       <c r="E33" t="n">
-        <v>186.4</v>
+        <v>188.2</v>
       </c>
       <c r="F33" t="n">
-        <v>436.9884</v>
+        <v>2.63</v>
       </c>
       <c r="G33" t="n">
-        <v>-9729.619699999996</v>
+        <v>15316.5132</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1606,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>186.5</v>
+        <v>186.4</v>
       </c>
       <c r="C34" t="n">
-        <v>186.5</v>
+        <v>186.4</v>
       </c>
       <c r="D34" t="n">
-        <v>186.5</v>
+        <v>186.4</v>
       </c>
       <c r="E34" t="n">
-        <v>186.5</v>
+        <v>186.4</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>1027</v>
       </c>
       <c r="G34" t="n">
-        <v>-9719.619699999996</v>
+        <v>14289.5132</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1645,19 +1629,19 @@
         <v>186.4</v>
       </c>
       <c r="C35" t="n">
-        <v>186</v>
+        <v>186.2</v>
       </c>
       <c r="D35" t="n">
         <v>186.4</v>
       </c>
       <c r="E35" t="n">
-        <v>186</v>
+        <v>186.2</v>
       </c>
       <c r="F35" t="n">
-        <v>3302.0115</v>
+        <v>1514.1738</v>
       </c>
       <c r="G35" t="n">
-        <v>-13021.6312</v>
+        <v>12775.3394</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1678,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>186</v>
+        <v>186.2</v>
       </c>
       <c r="C36" t="n">
-        <v>185.8</v>
+        <v>186.2</v>
       </c>
       <c r="D36" t="n">
-        <v>186</v>
+        <v>186.2</v>
       </c>
       <c r="E36" t="n">
-        <v>185.8</v>
+        <v>186.2</v>
       </c>
       <c r="F36" t="n">
-        <v>8895.2621</v>
+        <v>5100.287</v>
       </c>
       <c r="G36" t="n">
-        <v>-21916.8933</v>
+        <v>12775.3394</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1714,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>185.8</v>
+        <v>186.2</v>
       </c>
       <c r="C37" t="n">
-        <v>185.8</v>
+        <v>186.2</v>
       </c>
       <c r="D37" t="n">
-        <v>185.8</v>
+        <v>186.2</v>
       </c>
       <c r="E37" t="n">
-        <v>185.8</v>
+        <v>186.2</v>
       </c>
       <c r="F37" t="n">
-        <v>387</v>
+        <v>1094.0666</v>
       </c>
       <c r="G37" t="n">
-        <v>-21916.8933</v>
+        <v>12775.3394</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1750,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>185.8</v>
+        <v>186.1</v>
       </c>
       <c r="C38" t="n">
-        <v>185.8</v>
+        <v>186.1</v>
       </c>
       <c r="D38" t="n">
-        <v>185.8</v>
+        <v>186.1</v>
       </c>
       <c r="E38" t="n">
-        <v>185.8</v>
+        <v>186.1</v>
       </c>
       <c r="F38" t="n">
-        <v>33.95</v>
+        <v>2279.58</v>
       </c>
       <c r="G38" t="n">
-        <v>-21916.8933</v>
+        <v>10495.7594</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1786,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>185.8</v>
+        <v>186.1</v>
       </c>
       <c r="C39" t="n">
-        <v>185.8</v>
+        <v>186.2</v>
       </c>
       <c r="D39" t="n">
-        <v>185.8</v>
+        <v>186.2</v>
       </c>
       <c r="E39" t="n">
-        <v>185.8</v>
+        <v>186.1</v>
       </c>
       <c r="F39" t="n">
-        <v>669.2279</v>
+        <v>1037.8441</v>
       </c>
       <c r="G39" t="n">
-        <v>-21916.8933</v>
+        <v>11533.6035</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1822,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>186</v>
+        <v>186.2</v>
       </c>
       <c r="C40" t="n">
-        <v>186</v>
+        <v>186.2</v>
       </c>
       <c r="D40" t="n">
-        <v>186</v>
+        <v>186.2</v>
       </c>
       <c r="E40" t="n">
-        <v>186</v>
+        <v>186.2</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>7333.0474</v>
       </c>
       <c r="G40" t="n">
-        <v>-21906.8933</v>
+        <v>11533.6035</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1858,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>185.8</v>
+        <v>186.2</v>
       </c>
       <c r="C41" t="n">
-        <v>185.8</v>
+        <v>186.2</v>
       </c>
       <c r="D41" t="n">
-        <v>185.8</v>
+        <v>186.2</v>
       </c>
       <c r="E41" t="n">
-        <v>185.8</v>
+        <v>186.2</v>
       </c>
       <c r="F41" t="n">
-        <v>32.6304</v>
+        <v>4322.2198</v>
       </c>
       <c r="G41" t="n">
-        <v>-21939.52369999999</v>
+        <v>11533.6035</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1894,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>186</v>
+        <v>187.1</v>
       </c>
       <c r="C42" t="n">
-        <v>186</v>
+        <v>186.2</v>
       </c>
       <c r="D42" t="n">
-        <v>186</v>
+        <v>187.1</v>
       </c>
       <c r="E42" t="n">
-        <v>186</v>
+        <v>186.2</v>
       </c>
       <c r="F42" t="n">
-        <v>197.0644</v>
+        <v>10.65</v>
       </c>
       <c r="G42" t="n">
-        <v>-21742.45929999999</v>
+        <v>11533.6035</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1930,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>186</v>
+        <v>186.2</v>
       </c>
       <c r="C43" t="n">
-        <v>186</v>
+        <v>187.1</v>
       </c>
       <c r="D43" t="n">
-        <v>186</v>
+        <v>187.1</v>
       </c>
       <c r="E43" t="n">
-        <v>186</v>
+        <v>186.2</v>
       </c>
       <c r="F43" t="n">
-        <v>1.7665</v>
+        <v>26.26</v>
       </c>
       <c r="G43" t="n">
-        <v>-21742.45929999999</v>
+        <v>11559.8635</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1966,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>187.2</v>
+        <v>186.2</v>
       </c>
       <c r="C44" t="n">
-        <v>187.2</v>
+        <v>186.2</v>
       </c>
       <c r="D44" t="n">
-        <v>187.2</v>
+        <v>186.2</v>
       </c>
       <c r="E44" t="n">
-        <v>187.2</v>
+        <v>186.2</v>
       </c>
       <c r="F44" t="n">
-        <v>1412.68</v>
+        <v>324.4541</v>
       </c>
       <c r="G44" t="n">
-        <v>-20329.77929999999</v>
+        <v>11235.4094</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2002,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>188.3</v>
+        <v>186.2</v>
       </c>
       <c r="C45" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="D45" t="n">
-        <v>188.3</v>
+        <v>186.2</v>
       </c>
       <c r="E45" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="F45" t="n">
-        <v>2.65</v>
+        <v>1308.4045</v>
       </c>
       <c r="G45" t="n">
-        <v>-20327.12929999999</v>
+        <v>9927.004900000004</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2038,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="C46" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="D46" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="E46" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>5630.0828</v>
       </c>
       <c r="G46" t="n">
-        <v>-20327.12929999999</v>
+        <v>9927.004900000004</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2074,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>188.3</v>
+        <v>187.1</v>
       </c>
       <c r="C47" t="n">
-        <v>188.3</v>
+        <v>187.1</v>
       </c>
       <c r="D47" t="n">
-        <v>188.3</v>
+        <v>187.1</v>
       </c>
       <c r="E47" t="n">
-        <v>188.3</v>
+        <v>187.1</v>
       </c>
       <c r="F47" t="n">
-        <v>30</v>
+        <v>2.61</v>
       </c>
       <c r="G47" t="n">
-        <v>-20327.12929999999</v>
+        <v>9929.614900000004</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2110,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="C48" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="D48" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="E48" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="F48" t="n">
-        <v>51.4749</v>
+        <v>1107.34</v>
       </c>
       <c r="G48" t="n">
-        <v>-20327.12929999999</v>
+        <v>8822.274900000004</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2146,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="C49" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="D49" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="E49" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="F49" t="n">
-        <v>15</v>
+        <v>552.49</v>
       </c>
       <c r="G49" t="n">
-        <v>-20327.12929999999</v>
+        <v>8822.274900000004</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2182,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>186.6</v>
+        <v>186.1</v>
       </c>
       <c r="C50" t="n">
-        <v>186.6</v>
+        <v>186.1</v>
       </c>
       <c r="D50" t="n">
-        <v>186.6</v>
+        <v>186.1</v>
       </c>
       <c r="E50" t="n">
-        <v>186.6</v>
+        <v>186.1</v>
       </c>
       <c r="F50" t="n">
-        <v>7.36</v>
+        <v>1070.6556</v>
       </c>
       <c r="G50" t="n">
-        <v>-20334.48929999999</v>
+        <v>8822.274900000004</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2218,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>186.7</v>
+        <v>186</v>
       </c>
       <c r="C51" t="n">
-        <v>188.3</v>
+        <v>186</v>
       </c>
       <c r="D51" t="n">
-        <v>188.3</v>
+        <v>186</v>
       </c>
       <c r="E51" t="n">
-        <v>186.7</v>
+        <v>186</v>
       </c>
       <c r="F51" t="n">
-        <v>13.9059</v>
+        <v>624</v>
       </c>
       <c r="G51" t="n">
-        <v>-20320.58339999999</v>
+        <v>8198.274900000004</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2254,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="C52" t="n">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="D52" t="n">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="E52" t="n">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="F52" t="n">
-        <v>3265.9422</v>
+        <v>2.66</v>
       </c>
       <c r="G52" t="n">
-        <v>-23586.52559999999</v>
+        <v>8200.934900000004</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2290,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>187.9</v>
+        <v>187.1</v>
       </c>
       <c r="C53" t="n">
-        <v>187.9</v>
+        <v>187.1</v>
       </c>
       <c r="D53" t="n">
-        <v>187.9</v>
+        <v>187.1</v>
       </c>
       <c r="E53" t="n">
-        <v>187.9</v>
+        <v>187.1</v>
       </c>
       <c r="F53" t="n">
-        <v>5206.1598</v>
+        <v>6601.4988</v>
       </c>
       <c r="G53" t="n">
-        <v>-18380.36579999999</v>
+        <v>1599.436100000004</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2326,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>188</v>
+        <v>187.2</v>
       </c>
       <c r="C54" t="n">
-        <v>188</v>
+        <v>187.2</v>
       </c>
       <c r="D54" t="n">
-        <v>188</v>
+        <v>187.2</v>
       </c>
       <c r="E54" t="n">
-        <v>188</v>
+        <v>187.2</v>
       </c>
       <c r="F54" t="n">
-        <v>1673.3548</v>
+        <v>2.66</v>
       </c>
       <c r="G54" t="n">
-        <v>-16707.01099999999</v>
+        <v>1602.096100000004</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2362,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>188</v>
+        <v>187.2</v>
       </c>
       <c r="C55" t="n">
-        <v>188.3</v>
+        <v>187.2</v>
       </c>
       <c r="D55" t="n">
-        <v>188.3</v>
+        <v>187.2</v>
       </c>
       <c r="E55" t="n">
-        <v>188</v>
+        <v>187.2</v>
       </c>
       <c r="F55" t="n">
-        <v>18.57</v>
+        <v>200</v>
       </c>
       <c r="G55" t="n">
-        <v>-16688.44099999999</v>
+        <v>1602.096100000004</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2398,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="C56" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="D56" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="E56" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="F56" t="n">
-        <v>2.654</v>
+        <v>9850.9953</v>
       </c>
       <c r="G56" t="n">
-        <v>-16688.44099999999</v>
+        <v>-8248.899199999996</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2434,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="C57" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="D57" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="E57" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="F57" t="n">
-        <v>2.654</v>
+        <v>1941.1797</v>
       </c>
       <c r="G57" t="n">
-        <v>-16688.44099999999</v>
+        <v>-8248.899199999996</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2470,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>188.3</v>
+        <v>186.3</v>
       </c>
       <c r="C58" t="n">
-        <v>188.3</v>
+        <v>186.3</v>
       </c>
       <c r="D58" t="n">
-        <v>188.3</v>
+        <v>186.3</v>
       </c>
       <c r="E58" t="n">
-        <v>188.3</v>
+        <v>186.3</v>
       </c>
       <c r="F58" t="n">
-        <v>3115.9751</v>
+        <v>3183.5329</v>
       </c>
       <c r="G58" t="n">
-        <v>-16688.44099999999</v>
+        <v>-5065.366299999996</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2506,28 +2490,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="C59" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="D59" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="E59" t="n">
-        <v>188.3</v>
+        <v>186.1</v>
       </c>
       <c r="F59" t="n">
-        <v>535.7007</v>
+        <v>523.2061</v>
       </c>
       <c r="G59" t="n">
-        <v>-16688.44099999999</v>
+        <v>-5588.572399999996</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2542,28 +2526,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>187.5</v>
+        <v>186.1</v>
       </c>
       <c r="C60" t="n">
-        <v>187.5</v>
+        <v>186</v>
       </c>
       <c r="D60" t="n">
-        <v>187.5</v>
+        <v>186.1</v>
       </c>
       <c r="E60" t="n">
-        <v>187.5</v>
+        <v>186</v>
       </c>
       <c r="F60" t="n">
-        <v>1400</v>
+        <v>3706.7389</v>
       </c>
       <c r="G60" t="n">
-        <v>-18088.44099999999</v>
+        <v>-9295.311299999996</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2578,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>187.6</v>
+        <v>186.5</v>
       </c>
       <c r="C61" t="n">
-        <v>187.6</v>
+        <v>186.5</v>
       </c>
       <c r="D61" t="n">
-        <v>187.6</v>
+        <v>186.5</v>
       </c>
       <c r="E61" t="n">
-        <v>187.6</v>
+        <v>186.5</v>
       </c>
       <c r="F61" t="n">
-        <v>2.6653</v>
+        <v>2.68</v>
       </c>
       <c r="G61" t="n">
-        <v>-18085.77569999999</v>
+        <v>-9292.631299999995</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2614,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>188.2</v>
+        <v>186.4</v>
       </c>
       <c r="C62" t="n">
-        <v>188.2</v>
+        <v>186.4</v>
       </c>
       <c r="D62" t="n">
-        <v>188.2</v>
+        <v>186.4</v>
       </c>
       <c r="E62" t="n">
-        <v>188.2</v>
+        <v>186.4</v>
       </c>
       <c r="F62" t="n">
-        <v>2299</v>
+        <v>436.9884</v>
       </c>
       <c r="G62" t="n">
-        <v>-15786.77569999999</v>
+        <v>-9729.619699999996</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2650,28 +2634,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>188.2</v>
+        <v>186.5</v>
       </c>
       <c r="C63" t="n">
-        <v>188.2</v>
+        <v>186.5</v>
       </c>
       <c r="D63" t="n">
-        <v>188.2</v>
+        <v>186.5</v>
       </c>
       <c r="E63" t="n">
-        <v>188.2</v>
+        <v>186.5</v>
       </c>
       <c r="F63" t="n">
-        <v>446.0823</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>-15786.77569999999</v>
+        <v>-9719.619699999996</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2686,28 +2670,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>188.2</v>
+        <v>186.4</v>
       </c>
       <c r="C64" t="n">
-        <v>188.2</v>
+        <v>186</v>
       </c>
       <c r="D64" t="n">
-        <v>188.2</v>
+        <v>186.4</v>
       </c>
       <c r="E64" t="n">
-        <v>188.2</v>
+        <v>186</v>
       </c>
       <c r="F64" t="n">
-        <v>762.8009</v>
+        <v>3302.0115</v>
       </c>
       <c r="G64" t="n">
-        <v>-15786.77569999999</v>
+        <v>-13021.6312</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2722,28 +2706,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>188.3</v>
+        <v>186</v>
       </c>
       <c r="C65" t="n">
-        <v>188.3</v>
+        <v>185.8</v>
       </c>
       <c r="D65" t="n">
-        <v>188.3</v>
+        <v>186</v>
       </c>
       <c r="E65" t="n">
-        <v>188.3</v>
+        <v>185.8</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>8895.2621</v>
       </c>
       <c r="G65" t="n">
-        <v>-15776.77569999999</v>
+        <v>-21916.8933</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2758,28 +2742,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>188.2</v>
+        <v>185.8</v>
       </c>
       <c r="C66" t="n">
-        <v>188.2</v>
+        <v>185.8</v>
       </c>
       <c r="D66" t="n">
-        <v>188.2</v>
+        <v>185.8</v>
       </c>
       <c r="E66" t="n">
-        <v>188.2</v>
+        <v>185.8</v>
       </c>
       <c r="F66" t="n">
-        <v>831.9184</v>
+        <v>387</v>
       </c>
       <c r="G66" t="n">
-        <v>-16608.69409999999</v>
+        <v>-21916.8933</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2794,28 +2778,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>187.7</v>
+        <v>185.8</v>
       </c>
       <c r="C67" t="n">
-        <v>187.5</v>
+        <v>185.8</v>
       </c>
       <c r="D67" t="n">
-        <v>187.7</v>
+        <v>185.8</v>
       </c>
       <c r="E67" t="n">
-        <v>187.5</v>
+        <v>185.8</v>
       </c>
       <c r="F67" t="n">
-        <v>4745.3992</v>
+        <v>33.95</v>
       </c>
       <c r="G67" t="n">
-        <v>-21354.09329999999</v>
+        <v>-21916.8933</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2830,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>188.1</v>
+        <v>185.8</v>
       </c>
       <c r="C68" t="n">
-        <v>188.1</v>
+        <v>185.8</v>
       </c>
       <c r="D68" t="n">
-        <v>188.1</v>
+        <v>185.8</v>
       </c>
       <c r="E68" t="n">
-        <v>188.1</v>
+        <v>185.8</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>669.2279</v>
       </c>
       <c r="G68" t="n">
-        <v>-21344.09329999999</v>
+        <v>-21916.8933</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2866,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>187.3</v>
+        <v>186</v>
       </c>
       <c r="C69" t="n">
-        <v>186.8</v>
+        <v>186</v>
       </c>
       <c r="D69" t="n">
-        <v>187.3</v>
+        <v>186</v>
       </c>
       <c r="E69" t="n">
-        <v>186.8</v>
+        <v>186</v>
       </c>
       <c r="F69" t="n">
-        <v>15193.5864</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-36537.67969999999</v>
+        <v>-21906.8933</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2902,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>187.4</v>
+        <v>185.8</v>
       </c>
       <c r="C70" t="n">
-        <v>187.4</v>
+        <v>185.8</v>
       </c>
       <c r="D70" t="n">
-        <v>187.4</v>
+        <v>185.8</v>
       </c>
       <c r="E70" t="n">
-        <v>187.4</v>
+        <v>185.8</v>
       </c>
       <c r="F70" t="n">
-        <v>32.8868</v>
+        <v>32.6304</v>
       </c>
       <c r="G70" t="n">
-        <v>-36504.79289999999</v>
+        <v>-21939.52369999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2938,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>186.8</v>
+        <v>186</v>
       </c>
       <c r="C71" t="n">
-        <v>186.8</v>
+        <v>186</v>
       </c>
       <c r="D71" t="n">
-        <v>186.8</v>
+        <v>186</v>
       </c>
       <c r="E71" t="n">
-        <v>186.8</v>
+        <v>186</v>
       </c>
       <c r="F71" t="n">
-        <v>163.2763</v>
+        <v>197.0644</v>
       </c>
       <c r="G71" t="n">
-        <v>-36668.06919999999</v>
+        <v>-21742.45929999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2974,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>186.8</v>
+        <v>186</v>
       </c>
       <c r="C72" t="n">
-        <v>186.8</v>
+        <v>186</v>
       </c>
       <c r="D72" t="n">
-        <v>186.8</v>
+        <v>186</v>
       </c>
       <c r="E72" t="n">
-        <v>186.8</v>
+        <v>186</v>
       </c>
       <c r="F72" t="n">
-        <v>199.8748</v>
+        <v>1.7665</v>
       </c>
       <c r="G72" t="n">
-        <v>-36668.06919999999</v>
+        <v>-21742.45929999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3010,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="C73" t="n">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="D73" t="n">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="E73" t="n">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="F73" t="n">
-        <v>649.6191</v>
+        <v>1412.68</v>
       </c>
       <c r="G73" t="n">
-        <v>-36668.06919999999</v>
+        <v>-20329.77929999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3046,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>186.8</v>
+        <v>188.3</v>
       </c>
       <c r="C74" t="n">
-        <v>186.8</v>
+        <v>188.3</v>
       </c>
       <c r="D74" t="n">
-        <v>186.8</v>
+        <v>188.3</v>
       </c>
       <c r="E74" t="n">
-        <v>186.8</v>
+        <v>188.3</v>
       </c>
       <c r="F74" t="n">
-        <v>1485.4455</v>
+        <v>2.65</v>
       </c>
       <c r="G74" t="n">
-        <v>-36668.06919999999</v>
+        <v>-20327.12929999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3082,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>186.7</v>
+        <v>188.3</v>
       </c>
       <c r="C75" t="n">
-        <v>186.7</v>
+        <v>188.3</v>
       </c>
       <c r="D75" t="n">
-        <v>186.7</v>
+        <v>188.3</v>
       </c>
       <c r="E75" t="n">
-        <v>186.7</v>
+        <v>188.3</v>
       </c>
       <c r="F75" t="n">
-        <v>187.9242</v>
+        <v>200</v>
       </c>
       <c r="G75" t="n">
-        <v>-36855.99339999999</v>
+        <v>-20327.12929999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3118,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>186.7</v>
+        <v>188.3</v>
       </c>
       <c r="C76" t="n">
-        <v>186.7</v>
+        <v>188.3</v>
       </c>
       <c r="D76" t="n">
-        <v>186.7</v>
+        <v>188.3</v>
       </c>
       <c r="E76" t="n">
-        <v>186.7</v>
+        <v>188.3</v>
       </c>
       <c r="F76" t="n">
-        <v>5171.3264</v>
+        <v>30</v>
       </c>
       <c r="G76" t="n">
-        <v>-36855.99339999999</v>
+        <v>-20327.12929999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3154,35 +3138,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>187.5</v>
+        <v>188.3</v>
       </c>
       <c r="C77" t="n">
-        <v>187.5</v>
+        <v>188.3</v>
       </c>
       <c r="D77" t="n">
-        <v>187.5</v>
+        <v>188.3</v>
       </c>
       <c r="E77" t="n">
-        <v>187.5</v>
+        <v>188.3</v>
       </c>
       <c r="F77" t="n">
-        <v>2.66</v>
+        <v>51.4749</v>
       </c>
       <c r="G77" t="n">
-        <v>-36853.33339999999</v>
+        <v>-20327.12929999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="K77" t="n">
-        <v>186.7</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3194,40 +3174,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>187.5</v>
+        <v>188.3</v>
       </c>
       <c r="C78" t="n">
-        <v>187.5</v>
+        <v>188.3</v>
       </c>
       <c r="D78" t="n">
-        <v>187.5</v>
+        <v>188.3</v>
       </c>
       <c r="E78" t="n">
-        <v>187.5</v>
+        <v>188.3</v>
       </c>
       <c r="F78" t="n">
-        <v>4997.34</v>
+        <v>15</v>
       </c>
       <c r="G78" t="n">
-        <v>-36853.33339999999</v>
+        <v>-20327.12929999999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="K78" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3238,40 +3210,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>187.5</v>
+        <v>186.6</v>
       </c>
       <c r="C79" t="n">
-        <v>187</v>
+        <v>186.6</v>
       </c>
       <c r="D79" t="n">
-        <v>187.5</v>
+        <v>186.6</v>
       </c>
       <c r="E79" t="n">
-        <v>187</v>
+        <v>186.6</v>
       </c>
       <c r="F79" t="n">
-        <v>176</v>
+        <v>7.36</v>
       </c>
       <c r="G79" t="n">
-        <v>-37029.33339999999</v>
+        <v>-20334.48929999999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="K79" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3282,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>188.1</v>
+        <v>186.7</v>
       </c>
       <c r="C80" t="n">
-        <v>188.1</v>
+        <v>188.3</v>
       </c>
       <c r="D80" t="n">
-        <v>188.1</v>
+        <v>188.3</v>
       </c>
       <c r="E80" t="n">
-        <v>188.1</v>
+        <v>186.7</v>
       </c>
       <c r="F80" t="n">
-        <v>713.0339</v>
+        <v>13.9059</v>
       </c>
       <c r="G80" t="n">
-        <v>-36316.29949999999</v>
+        <v>-20320.58339999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3318,28 +3282,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>187.1</v>
+        <v>186.8</v>
       </c>
       <c r="C81" t="n">
-        <v>187</v>
+        <v>186.8</v>
       </c>
       <c r="D81" t="n">
-        <v>187.1</v>
+        <v>186.8</v>
       </c>
       <c r="E81" t="n">
-        <v>187</v>
+        <v>186.8</v>
       </c>
       <c r="F81" t="n">
-        <v>1205.8561</v>
+        <v>3265.9422</v>
       </c>
       <c r="G81" t="n">
-        <v>-37522.15559999998</v>
+        <v>-23586.52559999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3354,35 +3318,31 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>187.1</v>
+        <v>187.9</v>
       </c>
       <c r="C82" t="n">
-        <v>187.1</v>
+        <v>187.9</v>
       </c>
       <c r="D82" t="n">
-        <v>187.1</v>
+        <v>187.9</v>
       </c>
       <c r="E82" t="n">
-        <v>187.1</v>
+        <v>187.9</v>
       </c>
       <c r="F82" t="n">
-        <v>170.8724</v>
+        <v>5206.1598</v>
       </c>
       <c r="G82" t="n">
-        <v>-37351.28319999998</v>
+        <v>-18380.36579999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>187</v>
-      </c>
-      <c r="K82" t="n">
-        <v>187</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
@@ -3394,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>188.1</v>
+        <v>188</v>
       </c>
       <c r="C83" t="n">
-        <v>188.1</v>
+        <v>188</v>
       </c>
       <c r="D83" t="n">
-        <v>188.1</v>
+        <v>188</v>
       </c>
       <c r="E83" t="n">
-        <v>188.1</v>
+        <v>188</v>
       </c>
       <c r="F83" t="n">
-        <v>2.65</v>
+        <v>1673.3548</v>
       </c>
       <c r="G83" t="n">
-        <v>-37348.63319999998</v>
+        <v>-16707.01099999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3418,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>187</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3436,38 +3390,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>187.2</v>
+        <v>188</v>
       </c>
       <c r="C84" t="n">
-        <v>187.1</v>
+        <v>188.3</v>
       </c>
       <c r="D84" t="n">
-        <v>187.2</v>
+        <v>188.3</v>
       </c>
       <c r="E84" t="n">
-        <v>187.1</v>
+        <v>188</v>
       </c>
       <c r="F84" t="n">
-        <v>18789.8181</v>
+        <v>18.57</v>
       </c>
       <c r="G84" t="n">
-        <v>-56138.45129999999</v>
+        <v>-16688.44099999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>187</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>188.1</v>
+        <v>188.3</v>
       </c>
       <c r="C85" t="n">
-        <v>188.1</v>
+        <v>188.3</v>
       </c>
       <c r="D85" t="n">
-        <v>188.1</v>
+        <v>188.3</v>
       </c>
       <c r="E85" t="n">
-        <v>188.1</v>
+        <v>188.3</v>
       </c>
       <c r="F85" t="n">
-        <v>11521.5584</v>
+        <v>2.654</v>
       </c>
       <c r="G85" t="n">
-        <v>-44616.89289999998</v>
+        <v>-16688.44099999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3514,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>188.1</v>
+        <v>188.3</v>
       </c>
       <c r="C86" t="n">
-        <v>188.1</v>
+        <v>188.3</v>
       </c>
       <c r="D86" t="n">
-        <v>188.1</v>
+        <v>188.3</v>
       </c>
       <c r="E86" t="n">
-        <v>188.1</v>
+        <v>188.3</v>
       </c>
       <c r="F86" t="n">
-        <v>10.8434</v>
+        <v>2.654</v>
       </c>
       <c r="G86" t="n">
-        <v>-44616.89289999998</v>
+        <v>-16688.44099999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3550,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>188</v>
+        <v>188.3</v>
       </c>
       <c r="C87" t="n">
-        <v>188</v>
+        <v>188.3</v>
       </c>
       <c r="D87" t="n">
-        <v>188</v>
+        <v>188.3</v>
       </c>
       <c r="E87" t="n">
-        <v>188</v>
+        <v>188.3</v>
       </c>
       <c r="F87" t="n">
-        <v>457</v>
+        <v>3115.9751</v>
       </c>
       <c r="G87" t="n">
-        <v>-45073.89289999998</v>
+        <v>-16688.44099999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3586,28 +3534,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>187.5</v>
+        <v>188.3</v>
       </c>
       <c r="C88" t="n">
-        <v>187.4</v>
+        <v>188.3</v>
       </c>
       <c r="D88" t="n">
-        <v>187.5</v>
+        <v>188.3</v>
       </c>
       <c r="E88" t="n">
-        <v>187.4</v>
+        <v>188.3</v>
       </c>
       <c r="F88" t="n">
-        <v>4323.7242</v>
+        <v>535.7007</v>
       </c>
       <c r="G88" t="n">
-        <v>-49397.61709999998</v>
+        <v>-16688.44099999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3622,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>188</v>
+        <v>187.5</v>
       </c>
       <c r="C89" t="n">
-        <v>188</v>
+        <v>187.5</v>
       </c>
       <c r="D89" t="n">
-        <v>188</v>
+        <v>187.5</v>
       </c>
       <c r="E89" t="n">
-        <v>188</v>
+        <v>187.5</v>
       </c>
       <c r="F89" t="n">
-        <v>60</v>
+        <v>1400</v>
       </c>
       <c r="G89" t="n">
-        <v>-49337.61709999998</v>
+        <v>-18088.44099999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3670,10 +3618,10 @@
         <v>187.6</v>
       </c>
       <c r="F90" t="n">
-        <v>264</v>
+        <v>2.6653</v>
       </c>
       <c r="G90" t="n">
-        <v>-49601.61709999998</v>
+        <v>-18085.77569999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3694,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>187.6</v>
+        <v>188.2</v>
       </c>
       <c r="C91" t="n">
-        <v>187.5</v>
+        <v>188.2</v>
       </c>
       <c r="D91" t="n">
-        <v>187.6</v>
+        <v>188.2</v>
       </c>
       <c r="E91" t="n">
-        <v>187.5</v>
+        <v>188.2</v>
       </c>
       <c r="F91" t="n">
-        <v>7417.608</v>
+        <v>2299</v>
       </c>
       <c r="G91" t="n">
-        <v>-57019.22509999998</v>
+        <v>-15786.77569999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3730,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>187.5</v>
+        <v>188.2</v>
       </c>
       <c r="C92" t="n">
-        <v>187.5</v>
+        <v>188.2</v>
       </c>
       <c r="D92" t="n">
-        <v>187.5</v>
+        <v>188.2</v>
       </c>
       <c r="E92" t="n">
-        <v>187.5</v>
+        <v>188.2</v>
       </c>
       <c r="F92" t="n">
-        <v>390.117</v>
+        <v>446.0823</v>
       </c>
       <c r="G92" t="n">
-        <v>-57019.22509999998</v>
+        <v>-15786.77569999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3766,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>187.3</v>
+        <v>188.2</v>
       </c>
       <c r="C93" t="n">
-        <v>187.3</v>
+        <v>188.2</v>
       </c>
       <c r="D93" t="n">
-        <v>187.3</v>
+        <v>188.2</v>
       </c>
       <c r="E93" t="n">
-        <v>187.3</v>
+        <v>188.2</v>
       </c>
       <c r="F93" t="n">
-        <v>148.9615</v>
+        <v>762.8009</v>
       </c>
       <c r="G93" t="n">
-        <v>-57168.18659999998</v>
+        <v>-15786.77569999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3802,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>187.6</v>
+        <v>188.3</v>
       </c>
       <c r="C94" t="n">
-        <v>187.6</v>
+        <v>188.3</v>
       </c>
       <c r="D94" t="n">
-        <v>187.6</v>
+        <v>188.3</v>
       </c>
       <c r="E94" t="n">
-        <v>187.6</v>
+        <v>188.3</v>
       </c>
       <c r="F94" t="n">
-        <v>462.6375</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>-56705.54909999998</v>
+        <v>-15776.77569999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3838,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>188</v>
+        <v>188.2</v>
       </c>
       <c r="C95" t="n">
-        <v>188</v>
+        <v>188.2</v>
       </c>
       <c r="D95" t="n">
-        <v>188</v>
+        <v>188.2</v>
       </c>
       <c r="E95" t="n">
-        <v>188</v>
+        <v>188.2</v>
       </c>
       <c r="F95" t="n">
-        <v>200.06</v>
+        <v>831.9184</v>
       </c>
       <c r="G95" t="n">
-        <v>-56505.48909999998</v>
+        <v>-16608.69409999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3874,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>188</v>
+        <v>187.7</v>
       </c>
       <c r="C96" t="n">
-        <v>188</v>
+        <v>187.5</v>
       </c>
       <c r="D96" t="n">
-        <v>188</v>
+        <v>187.7</v>
       </c>
       <c r="E96" t="n">
-        <v>188</v>
+        <v>187.5</v>
       </c>
       <c r="F96" t="n">
-        <v>2865.3075</v>
+        <v>4745.3992</v>
       </c>
       <c r="G96" t="n">
-        <v>-56505.48909999998</v>
+        <v>-21354.09329999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3910,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>188</v>
+        <v>188.1</v>
       </c>
       <c r="C97" t="n">
-        <v>188</v>
+        <v>188.1</v>
       </c>
       <c r="D97" t="n">
-        <v>188</v>
+        <v>188.1</v>
       </c>
       <c r="E97" t="n">
-        <v>188</v>
+        <v>188.1</v>
       </c>
       <c r="F97" t="n">
-        <v>2571.859</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>-56505.48909999998</v>
+        <v>-21344.09329999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3946,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>187.6</v>
+        <v>187.3</v>
       </c>
       <c r="C98" t="n">
-        <v>187.6</v>
+        <v>186.8</v>
       </c>
       <c r="D98" t="n">
-        <v>187.6</v>
+        <v>187.3</v>
       </c>
       <c r="E98" t="n">
-        <v>187.6</v>
+        <v>186.8</v>
       </c>
       <c r="F98" t="n">
-        <v>492.2772</v>
+        <v>15193.5864</v>
       </c>
       <c r="G98" t="n">
-        <v>-56997.76629999998</v>
+        <v>-36537.67969999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3982,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>187.5</v>
+        <v>187.4</v>
       </c>
       <c r="C99" t="n">
-        <v>187.5</v>
+        <v>187.4</v>
       </c>
       <c r="D99" t="n">
-        <v>187.5</v>
+        <v>187.4</v>
       </c>
       <c r="E99" t="n">
-        <v>187.5</v>
+        <v>187.4</v>
       </c>
       <c r="F99" t="n">
-        <v>955.4239</v>
+        <v>32.8868</v>
       </c>
       <c r="G99" t="n">
-        <v>-57953.19019999998</v>
+        <v>-36504.79289999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4018,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>187.4</v>
+        <v>186.8</v>
       </c>
       <c r="C100" t="n">
-        <v>187.3</v>
+        <v>186.8</v>
       </c>
       <c r="D100" t="n">
-        <v>187.4</v>
+        <v>186.8</v>
       </c>
       <c r="E100" t="n">
-        <v>187.3</v>
+        <v>186.8</v>
       </c>
       <c r="F100" t="n">
-        <v>2490.2114</v>
+        <v>163.2763</v>
       </c>
       <c r="G100" t="n">
-        <v>-60443.40159999998</v>
+        <v>-36668.06919999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4054,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>187.3</v>
+        <v>186.8</v>
       </c>
       <c r="C101" t="n">
-        <v>187.3</v>
+        <v>186.8</v>
       </c>
       <c r="D101" t="n">
-        <v>187.3</v>
+        <v>186.8</v>
       </c>
       <c r="E101" t="n">
-        <v>187.3</v>
+        <v>186.8</v>
       </c>
       <c r="F101" t="n">
-        <v>1221.766</v>
+        <v>199.8748</v>
       </c>
       <c r="G101" t="n">
-        <v>-60443.40159999998</v>
+        <v>-36668.06919999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4090,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>188</v>
+        <v>186.8</v>
       </c>
       <c r="C102" t="n">
-        <v>188</v>
+        <v>186.8</v>
       </c>
       <c r="D102" t="n">
-        <v>188</v>
+        <v>186.8</v>
       </c>
       <c r="E102" t="n">
-        <v>188</v>
+        <v>186.8</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>649.6191</v>
       </c>
       <c r="G102" t="n">
-        <v>-60433.40159999998</v>
+        <v>-36668.06919999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4126,31 +4074,35 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>187.7</v>
+        <v>186.8</v>
       </c>
       <c r="C103" t="n">
-        <v>187</v>
+        <v>186.8</v>
       </c>
       <c r="D103" t="n">
-        <v>187.7</v>
+        <v>186.8</v>
       </c>
       <c r="E103" t="n">
-        <v>187</v>
+        <v>186.8</v>
       </c>
       <c r="F103" t="n">
-        <v>13308.84</v>
+        <v>1485.4455</v>
       </c>
       <c r="G103" t="n">
-        <v>-73742.24159999998</v>
+        <v>-36668.06919999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="K103" t="n">
+        <v>186.8</v>
+      </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
@@ -4162,32 +4114,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>187.6</v>
+        <v>186.7</v>
       </c>
       <c r="C104" t="n">
-        <v>187.6</v>
+        <v>186.7</v>
       </c>
       <c r="D104" t="n">
-        <v>187.6</v>
+        <v>186.7</v>
       </c>
       <c r="E104" t="n">
-        <v>187.6</v>
+        <v>186.7</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>187.9242</v>
       </c>
       <c r="G104" t="n">
-        <v>-73732.24159999998</v>
+        <v>-36855.99339999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="K104" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4198,32 +4158,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>187</v>
+        <v>186.7</v>
       </c>
       <c r="C105" t="n">
-        <v>187</v>
+        <v>186.7</v>
       </c>
       <c r="D105" t="n">
-        <v>187</v>
+        <v>186.7</v>
       </c>
       <c r="E105" t="n">
-        <v>187</v>
+        <v>186.7</v>
       </c>
       <c r="F105" t="n">
-        <v>3000</v>
+        <v>5171.3264</v>
       </c>
       <c r="G105" t="n">
-        <v>-76732.24159999998</v>
+        <v>-36855.99339999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="K105" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4234,31 +4202,35 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>187</v>
+        <v>187.5</v>
       </c>
       <c r="C106" t="n">
-        <v>186.4</v>
+        <v>187.5</v>
       </c>
       <c r="D106" t="n">
-        <v>187</v>
+        <v>187.5</v>
       </c>
       <c r="E106" t="n">
-        <v>186.4</v>
+        <v>187.5</v>
       </c>
       <c r="F106" t="n">
-        <v>6634.49</v>
+        <v>2.66</v>
       </c>
       <c r="G106" t="n">
-        <v>-83366.73159999998</v>
+        <v>-36853.33339999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="K106" t="n">
+        <v>186.7</v>
+      </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
@@ -4270,22 +4242,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>186.6</v>
+        <v>187.5</v>
       </c>
       <c r="C107" t="n">
-        <v>186.6</v>
+        <v>187.5</v>
       </c>
       <c r="D107" t="n">
-        <v>186.6</v>
+        <v>187.5</v>
       </c>
       <c r="E107" t="n">
-        <v>186.6</v>
+        <v>187.5</v>
       </c>
       <c r="F107" t="n">
-        <v>184.9486</v>
+        <v>4997.34</v>
       </c>
       <c r="G107" t="n">
-        <v>-83181.78299999998</v>
+        <v>-36853.33339999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4294,8 +4266,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4306,32 +4284,38 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>187.3</v>
+        <v>187.5</v>
       </c>
       <c r="C108" t="n">
-        <v>187.3</v>
+        <v>187</v>
       </c>
       <c r="D108" t="n">
-        <v>187.3</v>
+        <v>187.5</v>
       </c>
       <c r="E108" t="n">
-        <v>187.3</v>
+        <v>187</v>
       </c>
       <c r="F108" t="n">
-        <v>303</v>
+        <v>176</v>
       </c>
       <c r="G108" t="n">
-        <v>-82878.78299999998</v>
+        <v>-37029.33339999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4342,22 +4326,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>187.4</v>
+        <v>188.1</v>
       </c>
       <c r="C109" t="n">
-        <v>187.4</v>
+        <v>188.1</v>
       </c>
       <c r="D109" t="n">
-        <v>187.4</v>
+        <v>188.1</v>
       </c>
       <c r="E109" t="n">
-        <v>187.4</v>
+        <v>188.1</v>
       </c>
       <c r="F109" t="n">
-        <v>3895.4109</v>
+        <v>713.0339</v>
       </c>
       <c r="G109" t="n">
-        <v>-78983.37209999998</v>
+        <v>-36316.29949999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4378,28 +4362,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>188.3</v>
+        <v>187.1</v>
       </c>
       <c r="C110" t="n">
-        <v>188.3</v>
+        <v>187</v>
       </c>
       <c r="D110" t="n">
-        <v>188.3</v>
+        <v>187.1</v>
       </c>
       <c r="E110" t="n">
-        <v>188.3</v>
+        <v>187</v>
       </c>
       <c r="F110" t="n">
-        <v>787.6068</v>
+        <v>1205.8561</v>
       </c>
       <c r="G110" t="n">
-        <v>-78195.76529999998</v>
+        <v>-37522.15559999998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4414,22 +4398,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>188.4</v>
+        <v>187.1</v>
       </c>
       <c r="C111" t="n">
-        <v>188.4</v>
+        <v>187.1</v>
       </c>
       <c r="D111" t="n">
-        <v>188.4</v>
+        <v>187.1</v>
       </c>
       <c r="E111" t="n">
-        <v>188.4</v>
+        <v>187.1</v>
       </c>
       <c r="F111" t="n">
-        <v>189</v>
+        <v>170.8724</v>
       </c>
       <c r="G111" t="n">
-        <v>-78006.76529999998</v>
+        <v>-37351.28319999998</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4450,22 +4434,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>188.4</v>
+        <v>188.1</v>
       </c>
       <c r="C112" t="n">
-        <v>188.5</v>
+        <v>188.1</v>
       </c>
       <c r="D112" t="n">
-        <v>188.5</v>
+        <v>188.1</v>
       </c>
       <c r="E112" t="n">
-        <v>188.4</v>
+        <v>188.1</v>
       </c>
       <c r="F112" t="n">
-        <v>3299.9055</v>
+        <v>2.65</v>
       </c>
       <c r="G112" t="n">
-        <v>-74706.85979999999</v>
+        <v>-37348.63319999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4486,22 +4470,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>187.6</v>
+        <v>187.2</v>
       </c>
       <c r="C113" t="n">
-        <v>187.6</v>
+        <v>187.1</v>
       </c>
       <c r="D113" t="n">
-        <v>187.6</v>
+        <v>187.2</v>
       </c>
       <c r="E113" t="n">
-        <v>187.6</v>
+        <v>187.1</v>
       </c>
       <c r="F113" t="n">
-        <v>945.006</v>
+        <v>18789.8181</v>
       </c>
       <c r="G113" t="n">
-        <v>-75651.86579999999</v>
+        <v>-56138.45129999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4522,22 +4506,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>188.5</v>
+        <v>188.1</v>
       </c>
       <c r="C114" t="n">
-        <v>188.6</v>
+        <v>188.1</v>
       </c>
       <c r="D114" t="n">
-        <v>188.6</v>
+        <v>188.1</v>
       </c>
       <c r="E114" t="n">
-        <v>188.5</v>
+        <v>188.1</v>
       </c>
       <c r="F114" t="n">
-        <v>1031.1619</v>
+        <v>11521.5584</v>
       </c>
       <c r="G114" t="n">
-        <v>-74620.70389999998</v>
+        <v>-44616.89289999998</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4558,28 +4542,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>188.6</v>
+        <v>188.1</v>
       </c>
       <c r="C115" t="n">
-        <v>188.6</v>
+        <v>188.1</v>
       </c>
       <c r="D115" t="n">
-        <v>188.6</v>
+        <v>188.1</v>
       </c>
       <c r="E115" t="n">
-        <v>188.6</v>
+        <v>188.1</v>
       </c>
       <c r="F115" t="n">
-        <v>2278.8382</v>
+        <v>10.8434</v>
       </c>
       <c r="G115" t="n">
-        <v>-74620.70389999998</v>
+        <v>-44616.89289999998</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4594,28 +4578,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>188.6</v>
+        <v>188</v>
       </c>
       <c r="C116" t="n">
-        <v>188.6</v>
+        <v>188</v>
       </c>
       <c r="D116" t="n">
-        <v>188.6</v>
+        <v>188</v>
       </c>
       <c r="E116" t="n">
-        <v>188.6</v>
+        <v>188</v>
       </c>
       <c r="F116" t="n">
-        <v>1034.6993</v>
+        <v>457</v>
       </c>
       <c r="G116" t="n">
-        <v>-74620.70389999998</v>
+        <v>-45073.89289999998</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4630,28 +4614,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>188.6</v>
+        <v>187.5</v>
       </c>
       <c r="C117" t="n">
-        <v>188.6</v>
+        <v>187.4</v>
       </c>
       <c r="D117" t="n">
-        <v>188.6</v>
+        <v>187.5</v>
       </c>
       <c r="E117" t="n">
-        <v>188.6</v>
+        <v>187.4</v>
       </c>
       <c r="F117" t="n">
-        <v>986.4625</v>
+        <v>4323.7242</v>
       </c>
       <c r="G117" t="n">
-        <v>-74620.70389999998</v>
+        <v>-49397.61709999998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4666,28 +4650,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>187.6</v>
+        <v>188</v>
       </c>
       <c r="C118" t="n">
-        <v>187.6</v>
+        <v>188</v>
       </c>
       <c r="D118" t="n">
-        <v>187.6</v>
+        <v>188</v>
       </c>
       <c r="E118" t="n">
-        <v>187.6</v>
+        <v>188</v>
       </c>
       <c r="F118" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="G118" t="n">
-        <v>-75120.70389999998</v>
+        <v>-49337.61709999998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4702,22 +4686,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>188.9</v>
+        <v>187.6</v>
       </c>
       <c r="C119" t="n">
-        <v>188.9</v>
+        <v>187.6</v>
       </c>
       <c r="D119" t="n">
-        <v>188.9</v>
+        <v>187.6</v>
       </c>
       <c r="E119" t="n">
-        <v>188.9</v>
+        <v>187.6</v>
       </c>
       <c r="F119" t="n">
-        <v>2.64</v>
+        <v>264</v>
       </c>
       <c r="G119" t="n">
-        <v>-75118.06389999998</v>
+        <v>-49601.61709999998</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4741,25 +4725,25 @@
         <v>187.6</v>
       </c>
       <c r="C120" t="n">
-        <v>187.6</v>
+        <v>187.5</v>
       </c>
       <c r="D120" t="n">
         <v>187.6</v>
       </c>
       <c r="E120" t="n">
-        <v>187.6</v>
+        <v>187.5</v>
       </c>
       <c r="F120" t="n">
-        <v>179</v>
+        <v>7417.608</v>
       </c>
       <c r="G120" t="n">
-        <v>-75297.06389999998</v>
+        <v>-57019.22509999998</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4774,22 +4758,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>187.6</v>
+        <v>187.5</v>
       </c>
       <c r="C121" t="n">
-        <v>187.6</v>
+        <v>187.5</v>
       </c>
       <c r="D121" t="n">
-        <v>187.6</v>
+        <v>187.5</v>
       </c>
       <c r="E121" t="n">
-        <v>187.6</v>
+        <v>187.5</v>
       </c>
       <c r="F121" t="n">
-        <v>728.0606</v>
+        <v>390.117</v>
       </c>
       <c r="G121" t="n">
-        <v>-75297.06389999998</v>
+        <v>-57019.22509999998</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4810,22 +4794,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>187.6</v>
+        <v>187.3</v>
       </c>
       <c r="C122" t="n">
-        <v>187.8</v>
+        <v>187.3</v>
       </c>
       <c r="D122" t="n">
-        <v>187.8</v>
+        <v>187.3</v>
       </c>
       <c r="E122" t="n">
-        <v>187.6</v>
+        <v>187.3</v>
       </c>
       <c r="F122" t="n">
-        <v>312.0001</v>
+        <v>148.9615</v>
       </c>
       <c r="G122" t="n">
-        <v>-74985.06379999997</v>
+        <v>-57168.18659999998</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4846,22 +4830,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>187.8</v>
+        <v>187.6</v>
       </c>
       <c r="C123" t="n">
-        <v>187.8</v>
+        <v>187.6</v>
       </c>
       <c r="D123" t="n">
-        <v>187.8</v>
+        <v>187.6</v>
       </c>
       <c r="E123" t="n">
-        <v>187.8</v>
+        <v>187.6</v>
       </c>
       <c r="F123" t="n">
-        <v>312</v>
+        <v>462.6375</v>
       </c>
       <c r="G123" t="n">
-        <v>-74985.06379999997</v>
+        <v>-56705.54909999998</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4882,22 +4866,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>187.3</v>
+        <v>188</v>
       </c>
       <c r="C124" t="n">
-        <v>187.3</v>
+        <v>188</v>
       </c>
       <c r="D124" t="n">
-        <v>187.3</v>
+        <v>188</v>
       </c>
       <c r="E124" t="n">
-        <v>187.3</v>
+        <v>188</v>
       </c>
       <c r="F124" t="n">
-        <v>16.2607</v>
+        <v>200.06</v>
       </c>
       <c r="G124" t="n">
-        <v>-75001.32449999997</v>
+        <v>-56505.48909999998</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4918,22 +4902,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C125" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D125" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E125" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F125" t="n">
-        <v>3754.4983</v>
+        <v>2865.3075</v>
       </c>
       <c r="G125" t="n">
-        <v>-78755.82279999998</v>
+        <v>-56505.48909999998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4954,22 +4938,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C126" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D126" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E126" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F126" t="n">
-        <v>1245.5017</v>
+        <v>2571.859</v>
       </c>
       <c r="G126" t="n">
-        <v>-78755.82279999998</v>
+        <v>-56505.48909999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4990,22 +4974,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>186.8</v>
+        <v>187.6</v>
       </c>
       <c r="C127" t="n">
-        <v>186.8</v>
+        <v>187.6</v>
       </c>
       <c r="D127" t="n">
-        <v>186.8</v>
+        <v>187.6</v>
       </c>
       <c r="E127" t="n">
-        <v>186.8</v>
+        <v>187.6</v>
       </c>
       <c r="F127" t="n">
-        <v>2944.6799</v>
+        <v>492.2772</v>
       </c>
       <c r="G127" t="n">
-        <v>-81700.50269999998</v>
+        <v>-56997.76629999998</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5026,22 +5010,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>186.9</v>
+        <v>187.5</v>
       </c>
       <c r="C128" t="n">
-        <v>186.9</v>
+        <v>187.5</v>
       </c>
       <c r="D128" t="n">
-        <v>186.9</v>
+        <v>187.5</v>
       </c>
       <c r="E128" t="n">
-        <v>186.9</v>
+        <v>187.5</v>
       </c>
       <c r="F128" t="n">
-        <v>2661.1983</v>
+        <v>955.4239</v>
       </c>
       <c r="G128" t="n">
-        <v>-79039.30439999998</v>
+        <v>-57953.19019999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5062,22 +5046,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>186.8</v>
+        <v>187.4</v>
       </c>
       <c r="C129" t="n">
-        <v>186.8</v>
+        <v>187.3</v>
       </c>
       <c r="D129" t="n">
-        <v>186.8</v>
+        <v>187.4</v>
       </c>
       <c r="E129" t="n">
-        <v>186.8</v>
+        <v>187.3</v>
       </c>
       <c r="F129" t="n">
-        <v>19.769</v>
+        <v>2490.2114</v>
       </c>
       <c r="G129" t="n">
-        <v>-79059.07339999998</v>
+        <v>-60443.40159999998</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5098,22 +5082,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>188.1</v>
+        <v>187.3</v>
       </c>
       <c r="C130" t="n">
-        <v>188.6</v>
+        <v>187.3</v>
       </c>
       <c r="D130" t="n">
-        <v>188.6</v>
+        <v>187.3</v>
       </c>
       <c r="E130" t="n">
-        <v>188.1</v>
+        <v>187.3</v>
       </c>
       <c r="F130" t="n">
-        <v>4002.9358</v>
+        <v>1221.766</v>
       </c>
       <c r="G130" t="n">
-        <v>-75056.13759999997</v>
+        <v>-60443.40159999998</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5134,22 +5118,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C131" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D131" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E131" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F131" t="n">
-        <v>9050.1559</v>
+        <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>-84106.29349999997</v>
+        <v>-60433.40159999998</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5170,22 +5154,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>186.1</v>
+        <v>187.7</v>
       </c>
       <c r="C132" t="n">
-        <v>187.9</v>
+        <v>187</v>
       </c>
       <c r="D132" t="n">
-        <v>187.9</v>
+        <v>187.7</v>
       </c>
       <c r="E132" t="n">
-        <v>186.1</v>
+        <v>187</v>
       </c>
       <c r="F132" t="n">
-        <v>24.9731</v>
+        <v>13308.84</v>
       </c>
       <c r="G132" t="n">
-        <v>-84081.32039999997</v>
+        <v>-73742.24159999998</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5206,22 +5190,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>186</v>
+        <v>187.6</v>
       </c>
       <c r="C133" t="n">
-        <v>188.1</v>
+        <v>187.6</v>
       </c>
       <c r="D133" t="n">
-        <v>188.1</v>
+        <v>187.6</v>
       </c>
       <c r="E133" t="n">
-        <v>185.8</v>
+        <v>187.6</v>
       </c>
       <c r="F133" t="n">
-        <v>4019.9389</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>-80061.38149999997</v>
+        <v>-73732.24159999998</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5242,22 +5226,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>188.4</v>
+        <v>187</v>
       </c>
       <c r="C134" t="n">
-        <v>188.4</v>
+        <v>187</v>
       </c>
       <c r="D134" t="n">
-        <v>188.4</v>
+        <v>187</v>
       </c>
       <c r="E134" t="n">
-        <v>188.4</v>
+        <v>187</v>
       </c>
       <c r="F134" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="G134" t="n">
-        <v>-79761.38149999997</v>
+        <v>-76732.24159999998</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5278,22 +5262,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>186.5</v>
+        <v>187</v>
       </c>
       <c r="C135" t="n">
-        <v>186.5</v>
+        <v>186.4</v>
       </c>
       <c r="D135" t="n">
-        <v>186.5</v>
+        <v>187</v>
       </c>
       <c r="E135" t="n">
-        <v>186.5</v>
+        <v>186.4</v>
       </c>
       <c r="F135" t="n">
-        <v>197.1638</v>
+        <v>6634.49</v>
       </c>
       <c r="G135" t="n">
-        <v>-79958.54529999997</v>
+        <v>-83366.73159999998</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5314,22 +5298,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>188.1</v>
+        <v>186.6</v>
       </c>
       <c r="C136" t="n">
-        <v>188.1</v>
+        <v>186.6</v>
       </c>
       <c r="D136" t="n">
-        <v>188.1</v>
+        <v>186.6</v>
       </c>
       <c r="E136" t="n">
-        <v>188.1</v>
+        <v>186.6</v>
       </c>
       <c r="F136" t="n">
-        <v>3</v>
+        <v>184.9486</v>
       </c>
       <c r="G136" t="n">
-        <v>-79955.54529999997</v>
+        <v>-83181.78299999998</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5345,6 +5329,1088 @@
       </c>
       <c r="N136" t="inlineStr"/>
     </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>303</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-82878.78299999998</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3895.4109</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-78983.37209999998</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>787.6068</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-78195.76529999998</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>189</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-78006.76529999998</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3299.9055</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-74706.85979999999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="F142" t="n">
+        <v>945.006</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-75651.86579999999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1031.1619</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-74620.70389999998</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="C144" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2278.8382</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-74620.70389999998</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="C145" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1034.6993</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-74620.70389999998</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="E146" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="F146" t="n">
+        <v>986.4625</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-74620.70389999998</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>500</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-75120.70389999998</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-75118.06389999998</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="C149" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="E149" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>179</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-75297.06389999998</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>728.0606</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-75297.06389999998</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="D151" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="F151" t="n">
+        <v>312.0001</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-74985.06379999997</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="C152" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="D152" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="E152" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>312</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-74985.06379999997</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="E153" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16.2607</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-75001.32449999997</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>187</v>
+      </c>
+      <c r="C154" t="n">
+        <v>187</v>
+      </c>
+      <c r="D154" t="n">
+        <v>187</v>
+      </c>
+      <c r="E154" t="n">
+        <v>187</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3754.4983</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-78755.82279999998</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="K154" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>187</v>
+      </c>
+      <c r="C155" t="n">
+        <v>187</v>
+      </c>
+      <c r="D155" t="n">
+        <v>187</v>
+      </c>
+      <c r="E155" t="n">
+        <v>187</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1245.5017</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-78755.82279999998</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>187</v>
+      </c>
+      <c r="K155" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C156" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D156" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E156" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2944.6799</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-81700.50269999998</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="C157" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="E157" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2661.1983</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-79039.30439999998</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="K157" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="D158" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="E158" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19.769</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-79059.07339999998</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="K158" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4002.9358</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-75056.13759999997</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="K159" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>187</v>
+      </c>
+      <c r="C160" t="n">
+        <v>186</v>
+      </c>
+      <c r="D160" t="n">
+        <v>187</v>
+      </c>
+      <c r="E160" t="n">
+        <v>186</v>
+      </c>
+      <c r="F160" t="n">
+        <v>9050.1559</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-84106.29349999997</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="D161" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>24.9731</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-84081.32039999997</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>186</v>
+      </c>
+      <c r="C162" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4019.9389</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-80061.38149999997</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="F163" t="n">
+        <v>300</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-79761.38149999997</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>197.1638</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-79958.54529999997</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-79955.54529999997</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-22 BackTest INS.xlsx
+++ b/BackTest/2020-01-22 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-4348.540299999997</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>5902.459700000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>187.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>187.7</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +523,19 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +562,19 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +601,19 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +640,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +679,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +718,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +757,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +796,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +835,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +874,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +913,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +952,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +991,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +1030,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1069,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1108,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1147,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1186,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1225,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1264,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1303,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1340,21 @@
         <v>25989.2209</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9912706446457114</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1381,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1412,15 @@
         <v>26097.2209</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1447,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1478,15 @@
         <v>24097.2209</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1513,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1546,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1579,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1612,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1645,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1678,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1711,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1744,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1777,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1810,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1843,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1876,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1909,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1942,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1975,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +2008,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +2041,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2074,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2107,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2140,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2173,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2206,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2239,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2272,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2305,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2338,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2371,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2404,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2437,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2470,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2503,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2536,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2569,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2602,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2635,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2666,21 @@
         <v>-21916.8933</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2707,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2744,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2781,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2818,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2855,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2892,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2929,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2966,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +3003,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +3040,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3077,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3114,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +3149,19 @@
         <v>-20327.12929999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3188,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3225,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3262,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3299,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3336,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3373,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3410,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3447,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3484,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3521,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3556,17 @@
         <v>-18088.44099999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3593,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3626,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3659,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3692,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3723,15 @@
         <v>-15776.77569999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3756,15 @@
         <v>-16608.69409999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3789,15 @@
         <v>-21354.09329999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3822,15 @@
         <v>-21344.09329999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3855,15 @@
         <v>-36537.67969999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3890,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3923,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3956,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3989,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,22 +4020,15 @@
         <v>-36668.06919999999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="K103" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4132,26 +4053,15 @@
         <v>-36855.99339999999</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="K104" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4176,26 +4086,15 @@
         <v>-36855.99339999999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="K105" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4220,22 +4119,15 @@
         <v>-36853.33339999999</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="K106" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4262,22 +4154,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4304,22 +4187,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>186.7</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4346,16 +4220,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4380,18 +4251,15 @@
         <v>-37522.15559999998</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4418,16 +4286,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4454,16 +4319,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4490,16 +4352,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4526,16 +4385,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4562,16 +4418,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4598,16 +4451,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4634,16 +4484,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4670,16 +4517,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4706,16 +4550,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4742,16 +4583,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4778,16 +4616,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4814,16 +4649,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4850,16 +4682,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4886,16 +4715,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4922,16 +4748,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4958,16 +4781,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4994,16 +4814,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5030,16 +4847,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5066,16 +4880,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5102,16 +4913,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5138,16 +4946,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5174,16 +4979,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5210,16 +5012,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5246,16 +5045,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5282,16 +5078,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5318,16 +5111,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5354,16 +5144,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5390,16 +5177,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5426,16 +5210,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5462,16 +5243,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5498,16 +5276,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5534,16 +5309,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5570,16 +5342,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5606,16 +5375,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5642,16 +5408,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5678,16 +5441,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5714,16 +5474,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5750,16 +5507,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5786,16 +5540,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5822,16 +5573,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5858,16 +5606,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5894,16 +5639,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5930,16 +5672,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5964,22 +5703,15 @@
         <v>-78755.82279999998</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>187.3</v>
-      </c>
-      <c r="K154" t="n">
-        <v>187.3</v>
-      </c>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6004,26 +5736,15 @@
         <v>-78755.82279999998</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>187</v>
-      </c>
-      <c r="K155" t="n">
-        <v>187.3</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6050,22 +5771,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>187.3</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6090,22 +5802,15 @@
         <v>-79039.30439999998</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="K157" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6130,26 +5835,15 @@
         <v>-79059.07339999998</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="K158" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6174,26 +5868,15 @@
         <v>-75056.13759999997</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="K159" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6220,16 +5903,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6256,16 +5936,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6292,16 +5969,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6328,16 +6002,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6364,16 +6035,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6400,18 +6068,15 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest INS.xlsx
+++ b/BackTest/2020-01-22 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4348.540299999997</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>5902.459700000003</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>187.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -602,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -641,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -680,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -719,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -758,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -797,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -836,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -875,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -914,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -953,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -992,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1031,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1070,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1109,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1148,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1187,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1226,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1265,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1304,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1340,19 +1210,13 @@
         <v>25989.2209</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0.9912706446457114</v>
+        <v>1</v>
       </c>
       <c r="M25" t="inlineStr"/>
     </row>
@@ -1412,7 +1276,7 @@
         <v>26097.2209</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1478,7 +1342,7 @@
         <v>24097.2209</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1511,7 +1375,7 @@
         <v>23746.22100000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1544,7 +1408,7 @@
         <v>23746.22100000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1874,7 +1738,7 @@
         <v>11533.6035</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1907,7 +1771,7 @@
         <v>11533.6035</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1940,7 +1804,7 @@
         <v>11559.8635</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1973,7 +1837,7 @@
         <v>11235.4094</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2006,7 +1870,7 @@
         <v>9927.004900000004</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2039,7 +1903,7 @@
         <v>9927.004900000004</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2072,7 +1936,7 @@
         <v>9929.614900000004</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2105,7 +1969,7 @@
         <v>8822.274900000004</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2171,7 +2035,7 @@
         <v>8822.274900000004</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2204,7 +2068,7 @@
         <v>8198.274900000004</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2237,7 +2101,7 @@
         <v>8200.934900000004</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2270,7 +2134,7 @@
         <v>1599.436100000004</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2303,7 +2167,7 @@
         <v>1602.096100000004</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2336,7 +2200,7 @@
         <v>1602.096100000004</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2369,7 +2233,7 @@
         <v>-8248.899199999996</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2402,7 +2266,7 @@
         <v>-8248.899199999996</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2666,17 +2530,11 @@
         <v>-21916.8933</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2705,15 +2563,11 @@
         <v>-21916.8933</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2746,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2783,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2820,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2857,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2894,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2931,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2968,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3005,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3042,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3079,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3116,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3149,15 +2959,11 @@
         <v>-20327.12929999999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3227,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3264,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3301,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3338,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3375,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3412,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3449,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3486,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3523,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3556,16 +3322,14 @@
         <v>-18088.44099999999</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3624,7 +3388,7 @@
         <v>-15786.77569999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3657,7 +3421,7 @@
         <v>-15786.77569999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3690,7 +3454,7 @@
         <v>-15786.77569999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3723,7 +3487,7 @@
         <v>-15776.77569999999</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3756,7 +3520,7 @@
         <v>-16608.69409999999</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3789,7 +3553,7 @@
         <v>-21354.09329999999</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3822,7 +3586,7 @@
         <v>-21344.09329999999</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3855,7 +3619,7 @@
         <v>-36537.67969999999</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3888,7 +3652,7 @@
         <v>-36504.79289999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3921,7 +3685,7 @@
         <v>-36668.06919999999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3954,7 +3718,7 @@
         <v>-36668.06919999999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3987,7 +3751,7 @@
         <v>-36668.06919999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4020,7 +3784,7 @@
         <v>-36668.06919999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4053,7 +3817,7 @@
         <v>-36855.99339999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4251,7 +4015,7 @@
         <v>-37522.15559999998</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4284,7 +4048,7 @@
         <v>-37351.28319999998</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4317,7 +4081,7 @@
         <v>-37348.63319999998</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4350,7 +4114,7 @@
         <v>-56138.45129999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4383,7 +4147,7 @@
         <v>-44616.89289999998</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4548,7 +4312,7 @@
         <v>-49601.61709999998</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4581,7 +4345,7 @@
         <v>-57019.22509999998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4614,7 +4378,7 @@
         <v>-57019.22509999998</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4647,7 +4411,7 @@
         <v>-57168.18659999998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4680,7 +4444,7 @@
         <v>-56705.54909999998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4713,7 +4477,7 @@
         <v>-56505.48909999998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4746,7 +4510,7 @@
         <v>-56505.48909999998</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4779,7 +4543,7 @@
         <v>-56505.48909999998</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5769,10 +5533,14 @@
         <v>-81700.50269999998</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>187</v>
+      </c>
+      <c r="J156" t="n">
+        <v>187</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
@@ -5802,11 +5570,19 @@
         <v>-79039.30439999998</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="J157" t="n">
+        <v>187</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5835,11 +5611,19 @@
         <v>-79059.07339999998</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="J158" t="n">
+        <v>187</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5868,10 +5652,14 @@
         <v>-75056.13759999997</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="J159" t="n">
+        <v>186.8</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
@@ -5904,8 +5692,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5937,8 +5731,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5967,11 +5767,19 @@
         <v>-80061.38149999997</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="J162" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6003,8 +5811,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6036,8 +5850,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6069,14 +5889,20 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
       <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest INS.xlsx
+++ b/BackTest/2020-01-22 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>11582.3057</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>11088.3057</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>10311.8162</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>25649.7869</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>25649.7869</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>25649.7869</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>24700.7869</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>24712.7869</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>26097.2209</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>26097.2209</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>24097.2209</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>23746.22100000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>15313.88320000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>15316.5132</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>14289.5132</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>12775.3394</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>12775.3394</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>12775.3394</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>10495.7594</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>11533.6035</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>11533.6035</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>11533.6035</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>11559.8635</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>11235.4094</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>9927.004900000004</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>9927.004900000004</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>8822.274900000004</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>8822.274900000004</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>8198.274900000004</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>8200.934900000004</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1599.436100000004</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1602.096100000004</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1602.096100000004</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-8248.899199999996</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-8248.899199999996</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-21916.8933</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-16688.44099999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-16688.44099999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-15786.77569999999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-15786.77569999999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-15786.77569999999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-21354.09329999999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-21344.09329999999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-36537.67969999999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-36504.79289999999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-36668.06919999999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-36668.06919999999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-36855.99339999999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-36316.29949999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-37351.28319999998</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-37348.63319999998</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-56138.45129999999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-44616.89289999998</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-57168.18659999998</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-56705.54909999998</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-56505.48909999998</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-56505.48909999998</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-56505.48909999998</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5533,14 +5533,10 @@
         <v>-81700.50269999998</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>187</v>
-      </c>
-      <c r="J156" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
@@ -5570,19 +5566,11 @@
         <v>-79039.30439999998</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="J157" t="n">
-        <v>187</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5611,19 +5599,11 @@
         <v>-79059.07339999998</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="J158" t="n">
-        <v>187</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5767,11 +5747,9 @@
         <v>-80061.38149999997</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>187.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
         <v>186.8</v>
       </c>
@@ -5903,6 +5881,6 @@
       <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest INS.xlsx
+++ b/BackTest/2020-01-22 BackTest INS.xlsx
@@ -550,7 +550,7 @@
         <v>11582.3057</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>11088.3057</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>10311.8162</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>25649.7869</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>25649.7869</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>25649.7869</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>24700.7869</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>24712.7869</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>25989.2209</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>26097.2209</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>24097.2209</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>23746.22100000001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>15313.88320000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>15316.5132</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>14289.5132</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>12775.3394</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>12775.3394</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>12775.3394</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>10495.7594</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>11533.6035</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>11533.6035</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>11533.6035</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>9929.614900000004</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-16688.44099999999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-16688.44099999999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-18088.44099999999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-15776.77569999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-16608.69409999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-21354.09329999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-21344.09329999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-36537.67969999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-36668.06919999999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-36668.06919999999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-36316.29949999999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-56138.45129999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-49601.61709999998</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-57019.22509999998</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-57019.22509999998</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5533,10 +5533,14 @@
         <v>-81700.50269999998</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>187</v>
+      </c>
+      <c r="J156" t="n">
+        <v>187</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
@@ -5566,11 +5570,19 @@
         <v>-79039.30439999998</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="J157" t="n">
+        <v>187</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5611,19 @@
         <v>-79059.07339999998</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="J158" t="n">
+        <v>187</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5708,9 +5728,11 @@
         <v>-84081.32039999997</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>186</v>
+      </c>
       <c r="J161" t="n">
         <v>186.8</v>
       </c>

--- a/BackTest/2020-01-22 BackTest INS.xlsx
+++ b/BackTest/2020-01-22 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>11656.2034</v>
       </c>
       <c r="G2" t="n">
-        <v>-4348.540299999997</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>10251</v>
       </c>
       <c r="G3" t="n">
-        <v>5902.459700000003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>21.08</v>
       </c>
       <c r="G4" t="n">
-        <v>5923.539700000003</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>5658.766</v>
       </c>
       <c r="G5" t="n">
-        <v>11582.3057</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>494</v>
       </c>
       <c r="G6" t="n">
-        <v>11088.3057</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>776.4895</v>
       </c>
       <c r="G7" t="n">
-        <v>10311.8162</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>5500.0276</v>
       </c>
       <c r="G8" t="n">
-        <v>15811.8438</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>566.7196</v>
       </c>
       <c r="G9" t="n">
-        <v>15245.1242</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>4918.052</v>
       </c>
       <c r="G10" t="n">
-        <v>20163.1762</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>5161.3701</v>
       </c>
       <c r="G11" t="n">
-        <v>25324.5463</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2612.4707</v>
       </c>
       <c r="G12" t="n">
-        <v>25324.5463</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>315.0082</v>
       </c>
       <c r="G13" t="n">
-        <v>25324.5463</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>22.2406</v>
       </c>
       <c r="G14" t="n">
-        <v>25346.7869</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>235.7594</v>
       </c>
       <c r="G15" t="n">
-        <v>25346.7869</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>303</v>
       </c>
       <c r="G16" t="n">
-        <v>25649.7869</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1198.2606</v>
       </c>
       <c r="G17" t="n">
-        <v>25649.7869</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1651</v>
       </c>
       <c r="G18" t="n">
-        <v>25649.7869</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>949</v>
       </c>
       <c r="G19" t="n">
-        <v>24700.7869</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>24712.7869</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1455.3184</v>
       </c>
       <c r="G21" t="n">
-        <v>23257.4685</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>856</v>
       </c>
       <c r="G22" t="n">
-        <v>23257.4685</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>4000</v>
       </c>
       <c r="G23" t="n">
-        <v>27257.4685</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2000</v>
       </c>
       <c r="G24" t="n">
-        <v>27257.4685</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1268.2476</v>
       </c>
       <c r="G25" t="n">
-        <v>25989.2209</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>500</v>
       </c>
       <c r="G26" t="n">
-        <v>26489.2209</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>392</v>
       </c>
       <c r="G27" t="n">
-        <v>26097.2209</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1608</v>
       </c>
       <c r="G28" t="n">
-        <v>26097.2209</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2000</v>
       </c>
       <c r="G29" t="n">
-        <v>24097.2209</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>350.9999</v>
       </c>
       <c r="G30" t="n">
-        <v>23746.22100000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>457.1111</v>
       </c>
       <c r="G31" t="n">
-        <v>23746.22100000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>8432.337799999999</v>
       </c>
       <c r="G32" t="n">
-        <v>15313.88320000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2.63</v>
       </c>
       <c r="G33" t="n">
-        <v>15316.5132</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1027</v>
       </c>
       <c r="G34" t="n">
-        <v>14289.5132</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1514.1738</v>
       </c>
       <c r="G35" t="n">
-        <v>12775.3394</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>5100.287</v>
       </c>
       <c r="G36" t="n">
-        <v>12775.3394</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1094.0666</v>
       </c>
       <c r="G37" t="n">
-        <v>12775.3394</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>2279.58</v>
       </c>
       <c r="G38" t="n">
-        <v>10495.7594</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1037.8441</v>
       </c>
       <c r="G39" t="n">
-        <v>11533.6035</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>7333.0474</v>
       </c>
       <c r="G40" t="n">
-        <v>11533.6035</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>4322.2198</v>
       </c>
       <c r="G41" t="n">
-        <v>11533.6035</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>10.65</v>
       </c>
       <c r="G42" t="n">
-        <v>11533.6035</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>26.26</v>
       </c>
       <c r="G43" t="n">
-        <v>11559.8635</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>324.4541</v>
       </c>
       <c r="G44" t="n">
-        <v>11235.4094</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1308.4045</v>
       </c>
       <c r="G45" t="n">
-        <v>9927.004900000004</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>5630.0828</v>
       </c>
       <c r="G46" t="n">
-        <v>9927.004900000004</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>2.61</v>
       </c>
       <c r="G47" t="n">
-        <v>9929.614900000004</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1107.34</v>
       </c>
       <c r="G48" t="n">
-        <v>8822.274900000004</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>552.49</v>
       </c>
       <c r="G49" t="n">
-        <v>8822.274900000004</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1070.6556</v>
       </c>
       <c r="G50" t="n">
-        <v>8822.274900000004</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>624</v>
       </c>
       <c r="G51" t="n">
-        <v>8198.274900000004</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2.66</v>
       </c>
       <c r="G52" t="n">
-        <v>8200.934900000004</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>6601.4988</v>
       </c>
       <c r="G53" t="n">
-        <v>1599.436100000004</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>2.66</v>
       </c>
       <c r="G54" t="n">
-        <v>1602.096100000004</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>200</v>
       </c>
       <c r="G55" t="n">
-        <v>1602.096100000004</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>9850.9953</v>
       </c>
       <c r="G56" t="n">
-        <v>-8248.899199999996</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1941.1797</v>
       </c>
       <c r="G57" t="n">
-        <v>-8248.899199999996</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>3183.5329</v>
       </c>
       <c r="G58" t="n">
-        <v>-5065.366299999996</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>523.2061</v>
       </c>
       <c r="G59" t="n">
-        <v>-5588.572399999996</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>3706.7389</v>
       </c>
       <c r="G60" t="n">
-        <v>-9295.311299999996</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>2.68</v>
       </c>
       <c r="G61" t="n">
-        <v>-9292.631299999995</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>436.9884</v>
       </c>
       <c r="G62" t="n">
-        <v>-9729.619699999996</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>-9719.619699999996</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>3302.0115</v>
       </c>
       <c r="G64" t="n">
-        <v>-13021.6312</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>8895.2621</v>
       </c>
       <c r="G65" t="n">
-        <v>-21916.8933</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>387</v>
       </c>
       <c r="G66" t="n">
-        <v>-21916.8933</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,19 @@
         <v>33.95</v>
       </c>
       <c r="G67" t="n">
-        <v>-21916.8933</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>185.8</v>
+      </c>
+      <c r="I67" t="n">
+        <v>185.8</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2427,23 @@
         <v>669.2279</v>
       </c>
       <c r="G68" t="n">
-        <v>-21916.8933</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>185.8</v>
+      </c>
+      <c r="I68" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2465,23 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-21906.8933</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>185.8</v>
+      </c>
+      <c r="I69" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2503,19 @@
         <v>32.6304</v>
       </c>
       <c r="G70" t="n">
-        <v>-21939.52369999999</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>186</v>
+      </c>
+      <c r="I70" t="n">
+        <v>186</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2537,21 @@
         <v>197.0644</v>
       </c>
       <c r="G71" t="n">
-        <v>-21742.45929999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>186</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2573,21 @@
         <v>1.7665</v>
       </c>
       <c r="G72" t="n">
-        <v>-21742.45929999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>186</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2609,15 @@
         <v>1412.68</v>
       </c>
       <c r="G73" t="n">
-        <v>-20329.77929999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2639,15 @@
         <v>2.65</v>
       </c>
       <c r="G74" t="n">
-        <v>-20327.12929999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2669,15 @@
         <v>200</v>
       </c>
       <c r="G75" t="n">
-        <v>-20327.12929999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2699,15 @@
         <v>30</v>
       </c>
       <c r="G76" t="n">
-        <v>-20327.12929999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2729,15 @@
         <v>51.4749</v>
       </c>
       <c r="G77" t="n">
-        <v>-20327.12929999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2759,15 @@
         <v>15</v>
       </c>
       <c r="G78" t="n">
-        <v>-20327.12929999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2789,15 @@
         <v>7.36</v>
       </c>
       <c r="G79" t="n">
-        <v>-20334.48929999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2819,15 @@
         <v>13.9059</v>
       </c>
       <c r="G80" t="n">
-        <v>-20320.58339999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2849,15 @@
         <v>3265.9422</v>
       </c>
       <c r="G81" t="n">
-        <v>-23586.52559999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2879,15 @@
         <v>5206.1598</v>
       </c>
       <c r="G82" t="n">
-        <v>-18380.36579999999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2909,15 @@
         <v>1673.3548</v>
       </c>
       <c r="G83" t="n">
-        <v>-16707.01099999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2939,15 @@
         <v>18.57</v>
       </c>
       <c r="G84" t="n">
-        <v>-16688.44099999999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2969,15 @@
         <v>2.654</v>
       </c>
       <c r="G85" t="n">
-        <v>-16688.44099999999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2999,15 @@
         <v>2.654</v>
       </c>
       <c r="G86" t="n">
-        <v>-16688.44099999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3029,15 @@
         <v>3115.9751</v>
       </c>
       <c r="G87" t="n">
-        <v>-16688.44099999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3059,15 @@
         <v>535.7007</v>
       </c>
       <c r="G88" t="n">
-        <v>-16688.44099999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3089,15 @@
         <v>1400</v>
       </c>
       <c r="G89" t="n">
-        <v>-18088.44099999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3119,15 @@
         <v>2.6653</v>
       </c>
       <c r="G90" t="n">
-        <v>-18085.77569999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3149,15 @@
         <v>2299</v>
       </c>
       <c r="G91" t="n">
-        <v>-15786.77569999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3179,15 @@
         <v>446.0823</v>
       </c>
       <c r="G92" t="n">
-        <v>-15786.77569999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3209,15 @@
         <v>762.8009</v>
       </c>
       <c r="G93" t="n">
-        <v>-15786.77569999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3239,15 @@
         <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>-15776.77569999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3269,15 @@
         <v>831.9184</v>
       </c>
       <c r="G95" t="n">
-        <v>-16608.69409999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3299,15 @@
         <v>4745.3992</v>
       </c>
       <c r="G96" t="n">
-        <v>-21354.09329999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3329,15 @@
         <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>-21344.09329999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3359,15 @@
         <v>15193.5864</v>
       </c>
       <c r="G98" t="n">
-        <v>-36537.67969999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3389,15 @@
         <v>32.8868</v>
       </c>
       <c r="G99" t="n">
-        <v>-36504.79289999999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3419,15 @@
         <v>163.2763</v>
       </c>
       <c r="G100" t="n">
-        <v>-36668.06919999999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3449,15 @@
         <v>199.8748</v>
       </c>
       <c r="G101" t="n">
-        <v>-36668.06919999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3479,15 @@
         <v>649.6191</v>
       </c>
       <c r="G102" t="n">
-        <v>-36668.06919999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3509,15 @@
         <v>1485.4455</v>
       </c>
       <c r="G103" t="n">
-        <v>-36668.06919999999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3539,15 @@
         <v>187.9242</v>
       </c>
       <c r="G104" t="n">
-        <v>-36855.99339999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3569,15 @@
         <v>5171.3264</v>
       </c>
       <c r="G105" t="n">
-        <v>-36855.99339999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3599,15 @@
         <v>2.66</v>
       </c>
       <c r="G106" t="n">
-        <v>-36853.33339999999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3629,15 @@
         <v>4997.34</v>
       </c>
       <c r="G107" t="n">
-        <v>-36853.33339999999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3659,15 @@
         <v>176</v>
       </c>
       <c r="G108" t="n">
-        <v>-37029.33339999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3689,15 @@
         <v>713.0339</v>
       </c>
       <c r="G109" t="n">
-        <v>-36316.29949999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3719,15 @@
         <v>1205.8561</v>
       </c>
       <c r="G110" t="n">
-        <v>-37522.15559999998</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3749,15 @@
         <v>170.8724</v>
       </c>
       <c r="G111" t="n">
-        <v>-37351.28319999998</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3779,19 @@
         <v>2.65</v>
       </c>
       <c r="G112" t="n">
-        <v>-37348.63319999998</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>187.1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>187.1</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3813,21 @@
         <v>18789.8181</v>
       </c>
       <c r="G113" t="n">
-        <v>-56138.45129999999</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3849,21 @@
         <v>11521.5584</v>
       </c>
       <c r="G114" t="n">
-        <v>-44616.89289999998</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3885,21 @@
         <v>10.8434</v>
       </c>
       <c r="G115" t="n">
-        <v>-44616.89289999998</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3921,21 @@
         <v>457</v>
       </c>
       <c r="G116" t="n">
-        <v>-45073.89289999998</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3957,21 @@
         <v>4323.7242</v>
       </c>
       <c r="G117" t="n">
-        <v>-49397.61709999998</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3993,21 @@
         <v>60</v>
       </c>
       <c r="G118" t="n">
-        <v>-49337.61709999998</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4029,21 @@
         <v>264</v>
       </c>
       <c r="G119" t="n">
-        <v>-49601.61709999998</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4065,21 @@
         <v>7417.608</v>
       </c>
       <c r="G120" t="n">
-        <v>-57019.22509999998</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4101,21 @@
         <v>390.117</v>
       </c>
       <c r="G121" t="n">
-        <v>-57019.22509999998</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4137,21 @@
         <v>148.9615</v>
       </c>
       <c r="G122" t="n">
-        <v>-57168.18659999998</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4173,21 @@
         <v>462.6375</v>
       </c>
       <c r="G123" t="n">
-        <v>-56705.54909999998</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4209,21 @@
         <v>200.06</v>
       </c>
       <c r="G124" t="n">
-        <v>-56505.48909999998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4245,21 @@
         <v>2865.3075</v>
       </c>
       <c r="G125" t="n">
-        <v>-56505.48909999998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4281,21 @@
         <v>2571.859</v>
       </c>
       <c r="G126" t="n">
-        <v>-56505.48909999998</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4317,21 @@
         <v>492.2772</v>
       </c>
       <c r="G127" t="n">
-        <v>-56997.76629999998</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4353,21 @@
         <v>955.4239</v>
       </c>
       <c r="G128" t="n">
-        <v>-57953.19019999998</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4389,21 @@
         <v>2490.2114</v>
       </c>
       <c r="G129" t="n">
-        <v>-60443.40159999998</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4425,21 @@
         <v>1221.766</v>
       </c>
       <c r="G130" t="n">
-        <v>-60443.40159999998</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4461,21 @@
         <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>-60433.40159999998</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4497,21 @@
         <v>13308.84</v>
       </c>
       <c r="G132" t="n">
-        <v>-73742.24159999998</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4533,21 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>-73732.24159999998</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4569,21 @@
         <v>3000</v>
       </c>
       <c r="G134" t="n">
-        <v>-76732.24159999998</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4605,21 @@
         <v>6634.49</v>
       </c>
       <c r="G135" t="n">
-        <v>-83366.73159999998</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4641,21 @@
         <v>184.9486</v>
       </c>
       <c r="G136" t="n">
-        <v>-83181.78299999998</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4677,21 @@
         <v>303</v>
       </c>
       <c r="G137" t="n">
-        <v>-82878.78299999998</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4713,21 @@
         <v>3895.4109</v>
       </c>
       <c r="G138" t="n">
-        <v>-78983.37209999998</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4749,21 @@
         <v>787.6068</v>
       </c>
       <c r="G139" t="n">
-        <v>-78195.76529999998</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4785,21 @@
         <v>189</v>
       </c>
       <c r="G140" t="n">
-        <v>-78006.76529999998</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4821,21 @@
         <v>3299.9055</v>
       </c>
       <c r="G141" t="n">
-        <v>-74706.85979999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4857,21 @@
         <v>945.006</v>
       </c>
       <c r="G142" t="n">
-        <v>-75651.86579999999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4893,21 @@
         <v>1031.1619</v>
       </c>
       <c r="G143" t="n">
-        <v>-74620.70389999998</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4929,21 @@
         <v>2278.8382</v>
       </c>
       <c r="G144" t="n">
-        <v>-74620.70389999998</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4965,21 @@
         <v>1034.6993</v>
       </c>
       <c r="G145" t="n">
-        <v>-74620.70389999998</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5001,21 @@
         <v>986.4625</v>
       </c>
       <c r="G146" t="n">
-        <v>-74620.70389999998</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5037,21 @@
         <v>500</v>
       </c>
       <c r="G147" t="n">
-        <v>-75120.70389999998</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5073,21 @@
         <v>2.64</v>
       </c>
       <c r="G148" t="n">
-        <v>-75118.06389999998</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5109,21 @@
         <v>179</v>
       </c>
       <c r="G149" t="n">
-        <v>-75297.06389999998</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5145,21 @@
         <v>728.0606</v>
       </c>
       <c r="G150" t="n">
-        <v>-75297.06389999998</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5181,21 @@
         <v>312.0001</v>
       </c>
       <c r="G151" t="n">
-        <v>-74985.06379999997</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5217,21 @@
         <v>312</v>
       </c>
       <c r="G152" t="n">
-        <v>-74985.06379999997</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5253,21 @@
         <v>16.2607</v>
       </c>
       <c r="G153" t="n">
-        <v>-75001.32449999997</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5289,21 @@
         <v>3754.4983</v>
       </c>
       <c r="G154" t="n">
-        <v>-78755.82279999998</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5325,21 @@
         <v>1245.5017</v>
       </c>
       <c r="G155" t="n">
-        <v>-78755.82279999998</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,22 +5361,21 @@
         <v>2944.6799</v>
       </c>
       <c r="G156" t="n">
-        <v>-81700.50269999998</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>187</v>
-      </c>
-      <c r="J156" t="n">
-        <v>187</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>187.1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5567,26 +5397,21 @@
         <v>2661.1983</v>
       </c>
       <c r="G157" t="n">
-        <v>-79039.30439999998</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="J157" t="n">
-        <v>187</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>187.1</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5608,26 +5433,21 @@
         <v>19.769</v>
       </c>
       <c r="G158" t="n">
-        <v>-79059.07339999998</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>186.9</v>
-      </c>
-      <c r="J158" t="n">
-        <v>187</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>187.1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5649,22 +5469,21 @@
         <v>4002.9358</v>
       </c>
       <c r="G159" t="n">
-        <v>-75056.13759999997</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="J159" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>187.1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5686,24 +5505,21 @@
         <v>9050.1559</v>
       </c>
       <c r="G160" t="n">
-        <v>-84106.29349999997</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5725,26 +5541,21 @@
         <v>24.9731</v>
       </c>
       <c r="G161" t="n">
-        <v>-84081.32039999997</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>186</v>
-      </c>
-      <c r="J161" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
+        <v>187.1</v>
+      </c>
+      <c r="J161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5766,24 +5577,21 @@
         <v>4019.9389</v>
       </c>
       <c r="G162" t="n">
-        <v>-80061.38149999997</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5805,24 +5613,21 @@
         <v>300</v>
       </c>
       <c r="G163" t="n">
-        <v>-79761.38149999997</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5844,24 +5649,21 @@
         <v>197.1638</v>
       </c>
       <c r="G164" t="n">
-        <v>-79958.54529999997</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="K164" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5883,24 +5685,21 @@
         <v>3</v>
       </c>
       <c r="G165" t="n">
-        <v>-79955.54529999997</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="K165" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
